--- a/data.xlsx
+++ b/data.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/07f7fad7cdc18923/Documents/GitLab project/project for image/convert pic/p2/convert-pic-project/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="5990" documentId="13_ncr:1_{08141CDB-C0EE-44BD-80D3-B351C4E8C509}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{0D58ED0A-08DF-4535-BE4D-B84EE50A1710}"/>
+  <xr:revisionPtr revIDLastSave="5993" documentId="13_ncr:1_{08141CDB-C0EE-44BD-80D3-B351C4E8C509}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{490FFDD0-9584-4764-BD89-22625F1B36C7}"/>
   <bookViews>
-    <workbookView xWindow="-285" yWindow="375" windowWidth="27420" windowHeight="15240" tabRatio="574" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1080" yWindow="360" windowWidth="27420" windowHeight="15240" tabRatio="574" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Data" sheetId="1" r:id="rId1"/>
@@ -133,7 +133,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="716" uniqueCount="267">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="703" uniqueCount="260">
   <si>
     <t>F1</t>
   </si>
@@ -313,18 +313,6 @@
   </si>
   <si>
     <t>All Type 2 pc step beam - 2.4375 x 4 with 14 &amp; 16 Ga</t>
-  </si>
-  <si>
-    <t>All Type 2 pc step beam - 2.5 x 5 with 14 &amp; 16 Ga</t>
-  </si>
-  <si>
-    <t>All Type box beam 1.56 x 2.0</t>
-  </si>
-  <si>
-    <t>All Type box beam 1.56 x 2.5</t>
-  </si>
-  <si>
-    <t>All Type box beam 1.56 x 3.0</t>
   </si>
   <si>
     <t>VA</t>
@@ -1147,9 +1135,6 @@
   </si>
   <si>
     <t>F61</t>
-  </si>
-  <si>
-    <t>Box Beam</t>
   </si>
   <si>
     <t>Step Beam</t>
@@ -2184,6 +2169,9 @@
     <t>E</t>
   </si>
   <si>
+    <t>All Type</t>
+  </si>
+  <si>
     <t>Teardrop</t>
   </si>
   <si>
@@ -2247,6 +2235,9 @@
     <t>not correct</t>
   </si>
   <si>
+    <t>🔗 View</t>
+  </si>
+  <si>
     <t>code</t>
   </si>
   <si>
@@ -2260,18 +2251,6 @@
   </si>
   <si>
     <t>ID 1</t>
-  </si>
-  <si>
-    <t>ID 2</t>
-  </si>
-  <si>
-    <t>ID 3</t>
-  </si>
-  <si>
-    <t>ID 4</t>
-  </si>
-  <si>
-    <t>ID 5</t>
   </si>
   <si>
     <t>Brace Entering</t>
@@ -17054,6 +17033,10 @@
 </externalLink>
 </file>
 
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
+</file>
+
 <file path=xl/queryTables/queryTable1.xml><?xml version="1.0" encoding="utf-8"?>
 <queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="Cold Formed Database" connectionId="1" xr16:uid="{8E2229AC-31DF-483B-852C-94109606BFD1}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0">
   <queryTableRefresh nextId="152" unboundColumnsRight="2">
@@ -17614,13 +17597,13 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:BW605"/>
+  <dimension ref="A1:BZ605"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="5" ySplit="3" topLeftCell="BK4" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <pane xSplit="5" ySplit="3" topLeftCell="R330" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="F1" sqref="F1"/>
       <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
-      <selection pane="bottomRight" activeCell="B2" sqref="B2"/>
+      <selection pane="bottomRight" activeCell="X2" sqref="X2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -17645,7 +17628,7 @@
     <col min="74" max="74" width="17.42578125" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:75" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:78" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -17824,368 +17807,371 @@
         <v>58</v>
       </c>
       <c r="BH1" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="BI1" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="BM1" s="1" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="2" spans="1:78" ht="18" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A2" t="s">
+        <v>253</v>
+      </c>
+      <c r="B2" t="s">
+        <v>124</v>
+      </c>
+      <c r="C2" t="s">
+        <v>111</v>
+      </c>
+      <c r="D2" t="s">
         <v>112</v>
       </c>
-      <c r="BI1" s="1" t="s">
+      <c r="E2" t="s">
         <v>113</v>
       </c>
-      <c r="BM1" s="1" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="2" spans="1:75" ht="18" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A2" t="s">
+      <c r="F2" t="s">
+        <v>254</v>
+      </c>
+      <c r="G2" s="3" t="s">
+        <v>107</v>
+      </c>
+      <c r="H2" s="3" t="s">
+        <v>98</v>
+      </c>
+      <c r="I2" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="J2" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="K2" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="L2" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="M2" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="N2" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="O2" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="P2" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="Q2" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="R2" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="S2" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="T2" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="U2" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="V2" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="W2" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="X2" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="Y2" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="Z2" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="AA2" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="AB2" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="AC2" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="AD2" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="AE2" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="AF2" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="AG2" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="AH2" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="AI2" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="AJ2" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="AN2" t="s">
+        <v>65</v>
+      </c>
+      <c r="AO2" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="AP2" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="AQ2" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="AR2" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="AS2" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="AT2" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="AU2" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="AV2" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="AW2" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="AX2" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="AY2" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="AZ2" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="BA2" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="BB2" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="BC2" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="BD2" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="BE2" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="BF2" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="BG2" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="BI2" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="BM2" s="62" t="s">
+        <v>116</v>
+      </c>
+      <c r="BN2" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="BO2" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="BP2" s="62" t="s">
+        <v>119</v>
+      </c>
+      <c r="BQ2" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="BR2" s="1" t="s">
+        <v>259</v>
+      </c>
+      <c r="BS2" s="1" t="s">
+        <v>234</v>
+      </c>
+      <c r="BT2" s="1" t="s">
+        <v>258</v>
+      </c>
+      <c r="BU2" s="1" t="s">
+        <v>255</v>
+      </c>
+      <c r="BV2" s="1" t="s">
         <v>256</v>
       </c>
-      <c r="B2" t="s">
-        <v>129</v>
-      </c>
-      <c r="C2" t="s">
-        <v>116</v>
-      </c>
-      <c r="D2" t="s">
-        <v>117</v>
-      </c>
-      <c r="E2" t="s">
-        <v>118</v>
-      </c>
-      <c r="F2" t="s">
-        <v>257</v>
-      </c>
-      <c r="G2" s="3" t="s">
-        <v>111</v>
-      </c>
-      <c r="H2" s="3" t="s">
+      <c r="BW2" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="3" spans="1:78" x14ac:dyDescent="0.25">
+      <c r="G3" t="s">
+        <v>99</v>
+      </c>
+      <c r="H3" t="s">
+        <v>99</v>
+      </c>
+      <c r="I3" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="J3" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="K3" s="1" t="s">
         <v>102</v>
       </c>
-      <c r="I2" s="1" t="s">
-        <v>71</v>
-      </c>
-      <c r="J2" s="1" t="s">
-        <v>72</v>
-      </c>
-      <c r="K2" s="1" t="s">
-        <v>73</v>
-      </c>
-      <c r="L2" s="1" t="s">
-        <v>74</v>
-      </c>
-      <c r="M2" s="1" t="s">
-        <v>75</v>
-      </c>
-      <c r="N2" s="1" t="s">
-        <v>76</v>
-      </c>
-      <c r="O2" s="1" t="s">
-        <v>77</v>
-      </c>
-      <c r="P2" s="1" t="s">
-        <v>78</v>
-      </c>
-      <c r="Q2" s="1" t="s">
-        <v>79</v>
-      </c>
-      <c r="R2" s="1" t="s">
-        <v>80</v>
-      </c>
-      <c r="S2" s="1" t="s">
-        <v>81</v>
-      </c>
-      <c r="T2" s="1" t="s">
-        <v>82</v>
-      </c>
-      <c r="U2" s="1" t="s">
-        <v>83</v>
-      </c>
-      <c r="V2" s="1" t="s">
-        <v>84</v>
-      </c>
-      <c r="W2" s="1" t="s">
-        <v>85</v>
-      </c>
-      <c r="X2" s="1" t="s">
-        <v>86</v>
-      </c>
-      <c r="Y2" s="1" t="s">
-        <v>87</v>
-      </c>
-      <c r="Z2" s="1" t="s">
-        <v>88</v>
-      </c>
-      <c r="AA2" s="1" t="s">
-        <v>89</v>
-      </c>
-      <c r="AB2" s="1" t="s">
-        <v>90</v>
-      </c>
-      <c r="AC2" s="1" t="s">
-        <v>91</v>
-      </c>
-      <c r="AD2" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="AE2" s="1" t="s">
-        <v>93</v>
-      </c>
-      <c r="AF2" s="1" t="s">
-        <v>94</v>
-      </c>
-      <c r="AG2" s="1" t="s">
-        <v>95</v>
-      </c>
-      <c r="AH2" s="1" t="s">
-        <v>96</v>
-      </c>
-      <c r="AI2" s="1" t="s">
-        <v>67</v>
-      </c>
-      <c r="AJ2" s="1" t="s">
-        <v>68</v>
-      </c>
-      <c r="AN2" t="s">
-        <v>69</v>
-      </c>
-      <c r="AO2" s="1" t="s">
-        <v>97</v>
-      </c>
-      <c r="AP2" s="1" t="s">
-        <v>96</v>
-      </c>
-      <c r="AQ2" s="1" t="s">
-        <v>94</v>
-      </c>
-      <c r="AR2" s="1" t="s">
-        <v>98</v>
-      </c>
-      <c r="AS2" s="1" t="s">
-        <v>99</v>
-      </c>
-      <c r="AT2" s="1" t="s">
-        <v>100</v>
-      </c>
-      <c r="AU2" s="1" t="s">
+      <c r="L3" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="M3" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="N3" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="O3" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="P3" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="Q3" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="R3" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="S3" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="T3" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="U3" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="V3" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="W3" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="X3" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="Y3" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="Z3" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="AA3" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="AB3" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="AC3" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="AD3" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="AE3" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="AF3" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="AG3" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="AH3" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="AI3" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="AO3" s="1" t="s">
         <v>101</v>
       </c>
-      <c r="AV2" s="1" t="s">
-        <v>76</v>
-      </c>
-      <c r="AW2" s="1" t="s">
-        <v>77</v>
-      </c>
-      <c r="AX2" s="1" t="s">
-        <v>78</v>
-      </c>
-      <c r="AY2" s="1" t="s">
-        <v>79</v>
-      </c>
-      <c r="AZ2" s="1" t="s">
-        <v>80</v>
-      </c>
-      <c r="BA2" s="1" t="s">
-        <v>81</v>
-      </c>
-      <c r="BB2" s="1" t="s">
-        <v>82</v>
-      </c>
-      <c r="BC2" s="1" t="s">
-        <v>83</v>
-      </c>
-      <c r="BD2" s="1" t="s">
-        <v>84</v>
-      </c>
-      <c r="BE2" s="1" t="s">
-        <v>85</v>
-      </c>
-      <c r="BF2" s="1" t="s">
-        <v>86</v>
-      </c>
-      <c r="BG2" s="1" t="s">
-        <v>87</v>
-      </c>
-      <c r="BI2" s="1" t="s">
-        <v>119</v>
-      </c>
-      <c r="BM2" s="62" t="s">
-        <v>121</v>
-      </c>
-      <c r="BN2" s="1" t="s">
-        <v>122</v>
-      </c>
-      <c r="BO2" s="1" t="s">
-        <v>123</v>
-      </c>
-      <c r="BP2" s="62" t="s">
-        <v>124</v>
-      </c>
-      <c r="BQ2" s="1" t="s">
-        <v>125</v>
-      </c>
-      <c r="BR2" s="1" t="s">
-        <v>266</v>
-      </c>
-      <c r="BS2" s="1" t="s">
-        <v>238</v>
-      </c>
-      <c r="BT2" s="1" t="s">
-        <v>265</v>
-      </c>
-      <c r="BU2" s="1" t="s">
-        <v>258</v>
-      </c>
-      <c r="BV2" s="1" t="s">
-        <v>259</v>
-      </c>
-    </row>
-    <row r="3" spans="1:75" x14ac:dyDescent="0.25">
-      <c r="G3" t="s">
-        <v>103</v>
-      </c>
-      <c r="H3" t="s">
-        <v>103</v>
-      </c>
-      <c r="I3" s="1" t="s">
+      <c r="AP3" s="1" t="s">
         <v>104</v>
       </c>
-      <c r="J3" s="1" t="s">
+      <c r="AQ3" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="AR3" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="AS3" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="AT3" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="AU3" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="AV3" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="AW3" s="1" t="s">
         <v>105</v>
       </c>
-      <c r="K3" s="1" t="s">
-        <v>106</v>
-      </c>
-      <c r="L3" s="1" t="s">
-        <v>107</v>
-      </c>
-      <c r="M3" s="1" t="s">
-        <v>108</v>
-      </c>
-      <c r="N3" s="1" t="s">
-        <v>108</v>
-      </c>
-      <c r="O3" s="1" t="s">
-        <v>109</v>
-      </c>
-      <c r="P3" s="1" t="s">
-        <v>109</v>
-      </c>
-      <c r="Q3" s="1" t="s">
-        <v>108</v>
-      </c>
-      <c r="R3" s="1" t="s">
-        <v>109</v>
-      </c>
-      <c r="S3" s="1" t="s">
-        <v>109</v>
-      </c>
-      <c r="T3" s="1" t="s">
-        <v>106</v>
-      </c>
-      <c r="U3" s="1" t="s">
-        <v>106</v>
-      </c>
-      <c r="V3" s="1" t="s">
-        <v>106</v>
-      </c>
-      <c r="W3" s="1" t="s">
-        <v>106</v>
-      </c>
-      <c r="X3" s="1" t="s">
-        <v>106</v>
-      </c>
-      <c r="Y3" s="1" t="s">
-        <v>106</v>
-      </c>
-      <c r="Z3" s="1" t="s">
-        <v>106</v>
-      </c>
-      <c r="AA3" s="1" t="s">
-        <v>106</v>
-      </c>
-      <c r="AB3" s="1" t="s">
-        <v>106</v>
-      </c>
-      <c r="AC3" s="1" t="s">
-        <v>106</v>
-      </c>
-      <c r="AD3" s="1" t="s">
-        <v>108</v>
-      </c>
-      <c r="AE3" s="1" t="s">
-        <v>108</v>
-      </c>
-      <c r="AF3" s="1" t="s">
-        <v>108</v>
-      </c>
-      <c r="AG3" s="1" t="s">
-        <v>108</v>
-      </c>
-      <c r="AH3" s="1" t="s">
-        <v>108</v>
-      </c>
-      <c r="AI3" s="1" t="s">
-        <v>110</v>
-      </c>
-      <c r="AO3" s="1" t="s">
+      <c r="AX3" s="1" t="s">
         <v>105</v>
       </c>
-      <c r="AP3" s="1" t="s">
-        <v>108</v>
-      </c>
-      <c r="AQ3" s="1" t="s">
-        <v>108</v>
-      </c>
-      <c r="AR3" s="1" t="s">
-        <v>106</v>
-      </c>
-      <c r="AS3" s="1" t="s">
-        <v>106</v>
-      </c>
-      <c r="AT3" s="1" t="s">
-        <v>106</v>
-      </c>
-      <c r="AU3" s="1" t="s">
-        <v>106</v>
-      </c>
-      <c r="AV3" s="1" t="s">
-        <v>108</v>
-      </c>
-      <c r="AW3" s="1" t="s">
-        <v>109</v>
-      </c>
-      <c r="AX3" s="1" t="s">
-        <v>109</v>
-      </c>
       <c r="AY3" s="1" t="s">
-        <v>108</v>
+        <v>104</v>
       </c>
       <c r="AZ3" s="1" t="s">
-        <v>109</v>
+        <v>105</v>
       </c>
       <c r="BA3" s="1" t="s">
-        <v>109</v>
+        <v>105</v>
       </c>
       <c r="BB3" s="1" t="s">
-        <v>106</v>
+        <v>102</v>
       </c>
       <c r="BC3" s="1" t="s">
-        <v>106</v>
+        <v>102</v>
       </c>
       <c r="BD3" s="1" t="s">
-        <v>106</v>
+        <v>102</v>
       </c>
       <c r="BE3" s="1" t="s">
-        <v>106</v>
+        <v>102</v>
       </c>
       <c r="BF3" s="1" t="s">
-        <v>106</v>
+        <v>102</v>
       </c>
       <c r="BG3" s="1" t="s">
-        <v>106</v>
+        <v>102</v>
       </c>
       <c r="BS3" s="1" t="s">
-        <v>239</v>
-      </c>
-    </row>
-    <row r="4" spans="1:75" x14ac:dyDescent="0.25">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="4" spans="1:78" x14ac:dyDescent="0.25">
       <c r="BM4" s="10"/>
       <c r="BN4" s="10"/>
       <c r="BO4" s="10"/>
@@ -18193,18 +18179,162 @@
       <c r="BQ4" s="10"/>
       <c r="BR4" s="10"/>
     </row>
-    <row r="6" spans="1:75" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:78" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>260</v>
+        <v>257</v>
       </c>
       <c r="B6" t="s">
         <v>59</v>
       </c>
       <c r="C6" t="s">
-        <v>115</v>
+        <v>110</v>
       </c>
       <c r="D6" t="s">
-        <v>234</v>
+        <v>229</v>
+      </c>
+      <c r="E6" t="s">
+        <v>230</v>
+      </c>
+      <c r="H6">
+        <v>50</v>
+      </c>
+      <c r="I6" s="1">
+        <v>3.3698999999999999E-3</v>
+      </c>
+      <c r="J6" s="1">
+        <v>0.99116000000000004</v>
+      </c>
+      <c r="K6" s="1">
+        <v>14.999000000000001</v>
+      </c>
+      <c r="L6" s="1">
+        <v>0.70794999999999997</v>
+      </c>
+      <c r="M6" s="1">
+        <v>1.4783999999999999E-3</v>
+      </c>
+      <c r="N6" s="1">
+        <v>2.1015999999999999</v>
+      </c>
+      <c r="O6" s="1">
+        <v>1.1160000000000001</v>
+      </c>
+      <c r="P6" s="1">
+        <v>1.0236000000000001</v>
+      </c>
+      <c r="Q6" s="1">
+        <v>0.76270000000000004</v>
+      </c>
+      <c r="R6" s="1">
+        <v>0.65459999999999996</v>
+      </c>
+      <c r="S6" s="1">
+        <v>0.59819999999999995</v>
+      </c>
+      <c r="T6" s="1">
+        <v>1.4560999999999999</v>
+      </c>
+      <c r="U6" s="1">
+        <v>1.8831</v>
+      </c>
+      <c r="V6" s="1">
+        <v>2.0531000000000001</v>
+      </c>
+      <c r="W6" s="1">
+        <v>0.87719999999999998</v>
+      </c>
+      <c r="X6" s="1">
+        <v>1.1652</v>
+      </c>
+      <c r="Y6" s="1">
+        <v>1.2748999999999999</v>
+      </c>
+      <c r="Z6" s="1">
+        <v>1.4750000000000001</v>
+      </c>
+      <c r="AA6" s="1">
+        <v>0.84509999999999996</v>
+      </c>
+      <c r="AB6" s="1">
+        <v>1.7</v>
+      </c>
+      <c r="AC6" s="1">
+        <v>1.7237</v>
+      </c>
+      <c r="AD6" s="1">
+        <v>2.1564999999999999</v>
+      </c>
+      <c r="AE6" s="1">
+        <v>0.70779999999999998</v>
+      </c>
+      <c r="AF6" s="1">
+        <v>2.8643000000000001</v>
+      </c>
+      <c r="AG6" s="1">
+        <v>2.9449999999999998</v>
+      </c>
+      <c r="AH6" s="1">
+        <v>-0.27660000000000001</v>
+      </c>
+      <c r="AI6" s="1">
+        <v>11.226000000000001</v>
+      </c>
+      <c r="AO6" s="1">
+        <v>0.99109000000000003</v>
+      </c>
+      <c r="AP6" s="1">
+        <v>-0.27650000000000002</v>
+      </c>
+      <c r="AQ6" s="1">
+        <v>2.8641000000000001</v>
+      </c>
+      <c r="AR6" s="1">
+        <v>-0.16170000000000001</v>
+      </c>
+      <c r="AS6" s="1">
+        <v>0.2351</v>
+      </c>
+      <c r="AT6" s="1">
+        <v>8.2500000000000004E-2</v>
+      </c>
+      <c r="AU6" s="1">
+        <v>-0.37730000000000002</v>
+      </c>
+      <c r="AV6" s="1">
+        <v>2.1013999999999999</v>
+      </c>
+      <c r="AW6" s="1">
+        <v>1.1158999999999999</v>
+      </c>
+      <c r="AX6" s="1">
+        <v>1.0236000000000001</v>
+      </c>
+      <c r="AY6" s="1">
+        <v>0.76259999999999994</v>
+      </c>
+      <c r="AZ6" s="1">
+        <v>0.65449999999999997</v>
+      </c>
+      <c r="BA6" s="1">
+        <v>0.59819999999999995</v>
+      </c>
+      <c r="BB6" s="1">
+        <v>1.4560999999999999</v>
+      </c>
+      <c r="BC6" s="1">
+        <v>1.8832</v>
+      </c>
+      <c r="BD6" s="1">
+        <v>2.0529999999999999</v>
+      </c>
+      <c r="BE6" s="1">
+        <v>0.87719999999999998</v>
+      </c>
+      <c r="BF6" s="1">
+        <v>1.1653</v>
+      </c>
+      <c r="BG6" s="1">
+        <v>1.2748999999999999</v>
       </c>
       <c r="BM6" s="10">
         <v>1.5625</v>
@@ -18218,56 +18348,34 @@
       <c r="BP6" s="10">
         <v>2.4375</v>
       </c>
-      <c r="BQ6" s="10"/>
+      <c r="BQ6" s="10">
+        <v>6.6081738782585511E-2</v>
+      </c>
       <c r="BR6" s="10">
         <v>6.6081738782585511E-2</v>
       </c>
-      <c r="BW6" s="78"/>
-    </row>
-    <row r="7" spans="1:75" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
-        <v>261</v>
-      </c>
-      <c r="B7" t="s">
-        <v>60</v>
-      </c>
-      <c r="C7" t="s">
-        <v>115</v>
-      </c>
-      <c r="D7" t="s">
-        <v>234</v>
-      </c>
-      <c r="BM7" s="8">
-        <v>1.5625</v>
-      </c>
-      <c r="BN7" s="8">
-        <v>4.9279999999999999</v>
-      </c>
-      <c r="BO7" s="8">
-        <v>2.4260999999999999</v>
-      </c>
-      <c r="BP7" s="8">
-        <v>3.4375</v>
-      </c>
+      <c r="BW6" s="78" t="s">
+        <v>252</v>
+      </c>
+      <c r="BY6">
+        <f>(-Table_Cold_Formed_Database[[#This Row],[F24]]+BO6/2)</f>
+        <v>5.4850000000000065E-2</v>
+      </c>
+      <c r="BZ6">
+        <f>-Table_Cold_Formed_Database[[#This Row],[F22]]</f>
+        <v>-2.0531000000000001</v>
+      </c>
+    </row>
+    <row r="7" spans="1:78" x14ac:dyDescent="0.25">
+      <c r="BM7" s="8"/>
+      <c r="BN7" s="8"/>
+      <c r="BO7" s="8"/>
+      <c r="BP7" s="8"/>
       <c r="BQ7" s="8"/>
-      <c r="BR7" s="8">
-        <v>6.6074474969115837E-2</v>
-      </c>
+      <c r="BR7" s="8"/>
       <c r="BW7" s="78"/>
     </row>
-    <row r="8" spans="1:75" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
-        <v>262</v>
-      </c>
-      <c r="B8" t="s">
-        <v>61</v>
-      </c>
-      <c r="C8" t="s">
-        <v>114</v>
-      </c>
-      <c r="D8" t="s">
-        <v>65</v>
-      </c>
+    <row r="8" spans="1:78" x14ac:dyDescent="0.25">
       <c r="I8" s="58"/>
       <c r="AK8" s="1"/>
       <c r="AL8" s="1"/>
@@ -18276,37 +18384,15 @@
       <c r="BJ8" s="1"/>
       <c r="BK8" s="1"/>
       <c r="BL8" s="1"/>
-      <c r="BM8" s="10">
-        <v>1.5855999999999999</v>
-      </c>
-      <c r="BN8" s="10">
-        <v>2.0283000000000002</v>
-      </c>
-      <c r="BO8" s="10">
-        <v>1.5855999999999999</v>
-      </c>
-      <c r="BP8" s="10">
-        <v>2.0283000000000002</v>
-      </c>
+      <c r="BM8" s="10"/>
+      <c r="BN8" s="10"/>
+      <c r="BO8" s="10"/>
+      <c r="BP8" s="10"/>
       <c r="BQ8" s="10"/>
-      <c r="BR8" s="10">
-        <v>5.999813258636788E-2</v>
-      </c>
+      <c r="BR8" s="10"/>
       <c r="BW8" s="78"/>
     </row>
-    <row r="9" spans="1:75" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
-        <v>263</v>
-      </c>
-      <c r="B9" t="s">
-        <v>62</v>
-      </c>
-      <c r="C9" t="s">
-        <v>114</v>
-      </c>
-      <c r="D9" t="s">
-        <v>65</v>
-      </c>
+    <row r="9" spans="1:78" x14ac:dyDescent="0.25">
       <c r="AO9" s="60"/>
       <c r="AP9" s="60"/>
       <c r="AQ9" s="60"/>
@@ -18327,37 +18413,15 @@
       <c r="BF9" s="60"/>
       <c r="BG9" s="60"/>
       <c r="BH9" s="61"/>
-      <c r="BM9" s="8">
-        <v>1.6126</v>
-      </c>
-      <c r="BN9" s="8">
-        <v>2.5173000000000001</v>
-      </c>
-      <c r="BO9" s="8">
-        <v>1.6126</v>
-      </c>
-      <c r="BP9" s="8">
-        <v>2.5173000000000001</v>
-      </c>
+      <c r="BM9" s="8"/>
+      <c r="BN9" s="8"/>
+      <c r="BO9" s="8"/>
+      <c r="BP9" s="8"/>
       <c r="BQ9" s="64"/>
-      <c r="BR9" s="64">
-        <v>5.9998292058070023E-2</v>
-      </c>
+      <c r="BR9" s="64"/>
       <c r="BW9" s="78"/>
     </row>
-    <row r="10" spans="1:75" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
-        <v>264</v>
-      </c>
-      <c r="B10" t="s">
-        <v>63</v>
-      </c>
-      <c r="C10" t="s">
-        <v>114</v>
-      </c>
-      <c r="D10" t="s">
-        <v>65</v>
-      </c>
+    <row r="10" spans="1:78" x14ac:dyDescent="0.25">
       <c r="AO10" s="60"/>
       <c r="AP10" s="60"/>
       <c r="AQ10" s="60"/>
@@ -18378,25 +18442,15 @@
       <c r="BF10" s="60"/>
       <c r="BG10" s="60"/>
       <c r="BH10" s="61"/>
-      <c r="BM10" s="10">
-        <v>1.5876999999999999</v>
-      </c>
-      <c r="BN10" s="10">
-        <v>3.2090000000000001</v>
-      </c>
-      <c r="BO10" s="10">
-        <v>1.5876999999999999</v>
-      </c>
-      <c r="BP10" s="10">
-        <v>3.2090000000000001</v>
-      </c>
+      <c r="BM10" s="10"/>
+      <c r="BN10" s="10"/>
+      <c r="BO10" s="10"/>
+      <c r="BP10" s="10"/>
       <c r="BQ10" s="10"/>
-      <c r="BR10" s="10">
-        <v>5.9998470012239909E-2</v>
-      </c>
+      <c r="BR10" s="10"/>
       <c r="BW10" s="78"/>
     </row>
-    <row r="11" spans="1:75" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:78" x14ac:dyDescent="0.25">
       <c r="AO11" s="60"/>
       <c r="AP11" s="60"/>
       <c r="AQ11" s="60"/>
@@ -18425,7 +18479,7 @@
       <c r="BR11" s="8"/>
       <c r="BW11" s="78"/>
     </row>
-    <row r="12" spans="1:75" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:78" x14ac:dyDescent="0.25">
       <c r="AO12" s="60"/>
       <c r="AP12" s="60"/>
       <c r="AQ12" s="60"/>
@@ -18454,7 +18508,7 @@
       <c r="BR12" s="10"/>
       <c r="BW12" s="78"/>
     </row>
-    <row r="13" spans="1:75" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:78" x14ac:dyDescent="0.25">
       <c r="AO13" s="60"/>
       <c r="AP13" s="60"/>
       <c r="AQ13" s="60"/>
@@ -18483,7 +18537,7 @@
       <c r="BR13" s="8"/>
       <c r="BW13" s="78"/>
     </row>
-    <row r="14" spans="1:75" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:78" x14ac:dyDescent="0.25">
       <c r="AO14" s="60"/>
       <c r="AP14" s="60"/>
       <c r="AQ14" s="60"/>
@@ -18512,7 +18566,7 @@
       <c r="BR14" s="10"/>
       <c r="BW14" s="78"/>
     </row>
-    <row r="15" spans="1:75" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:78" x14ac:dyDescent="0.25">
       <c r="AO15" s="60"/>
       <c r="AP15" s="60"/>
       <c r="AQ15" s="60"/>
@@ -18541,7 +18595,7 @@
       <c r="BR15" s="8"/>
       <c r="BW15" s="78"/>
     </row>
-    <row r="16" spans="1:75" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:78" x14ac:dyDescent="0.25">
       <c r="Z16" s="58"/>
       <c r="AA16" s="58"/>
       <c r="AB16" s="58"/>
@@ -29279,11 +29333,14 @@
     </row>
   </sheetData>
   <phoneticPr fontId="3" type="noConversion"/>
+  <hyperlinks>
+    <hyperlink ref="BW6" r:id="rId1" xr:uid="{B23605C7-BBE0-4A95-9DB4-8CD499FA5509}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
-  <legacyDrawing r:id="rId2"/>
+  <pageSetup orientation="portrait" r:id="rId2"/>
+  <legacyDrawing r:id="rId3"/>
   <tableParts count="1">
-    <tablePart r:id="rId3"/>
+    <tablePart r:id="rId4"/>
   </tableParts>
 </worksheet>
 </file>
@@ -29323,507 +29380,507 @@
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A1" s="11" t="s">
-        <v>136</v>
+        <v>131</v>
       </c>
       <c r="B1" s="11" t="s">
-        <v>137</v>
+        <v>132</v>
       </c>
       <c r="C1" s="11" t="s">
-        <v>138</v>
+        <v>133</v>
       </c>
       <c r="K1" s="11" t="s">
-        <v>201</v>
+        <v>196</v>
       </c>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A2" s="11" t="s">
-        <v>139</v>
+        <v>134</v>
       </c>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A3" s="11" t="s">
-        <v>140</v>
+        <v>135</v>
       </c>
       <c r="B3" s="12">
         <v>1.6763999999999999</v>
       </c>
       <c r="C3" s="11" t="s">
-        <v>141</v>
+        <v>136</v>
       </c>
       <c r="D3" s="11" t="s">
-        <v>142</v>
+        <v>137</v>
       </c>
       <c r="E3" s="12">
         <v>5.6997000000000003E-3</v>
       </c>
       <c r="F3" s="11" t="s">
-        <v>240</v>
+        <v>236</v>
       </c>
       <c r="G3" s="11" t="s">
-        <v>143</v>
+        <v>138</v>
       </c>
       <c r="H3" s="12">
         <v>18.626000000000001</v>
       </c>
       <c r="I3" s="11" t="s">
-        <v>106</v>
+        <v>102</v>
       </c>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A5" s="11" t="s">
-        <v>144</v>
+        <v>139</v>
       </c>
       <c r="B5" s="12">
         <v>4.0709999999999997</v>
       </c>
       <c r="C5" s="11" t="s">
-        <v>145</v>
+        <v>140</v>
       </c>
       <c r="D5" s="11" t="s">
-        <v>146</v>
+        <v>141</v>
       </c>
       <c r="E5" s="12">
         <v>1.5583</v>
       </c>
       <c r="F5" s="11" t="s">
-        <v>106</v>
+        <v>102</v>
       </c>
       <c r="G5" s="11" t="s">
-        <v>147</v>
+        <v>142</v>
       </c>
       <c r="H5" s="12">
         <v>0</v>
       </c>
       <c r="I5" s="11" t="s">
-        <v>145</v>
+        <v>140</v>
       </c>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A6" s="11" t="s">
-        <v>148</v>
+        <v>143</v>
       </c>
       <c r="B6" s="12">
         <v>1.7156</v>
       </c>
       <c r="C6" s="11" t="s">
-        <v>149</v>
+        <v>144</v>
       </c>
       <c r="D6" s="11" t="s">
-        <v>150</v>
+        <v>145</v>
       </c>
       <c r="E6" s="12">
         <v>2.3729</v>
       </c>
       <c r="F6" s="11" t="s">
-        <v>106</v>
+        <v>102</v>
       </c>
       <c r="G6" s="11" t="s">
-        <v>151</v>
+        <v>146</v>
       </c>
       <c r="H6" s="12">
         <v>0</v>
       </c>
       <c r="I6" s="11" t="s">
-        <v>110</v>
+        <v>106</v>
       </c>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A7" s="11" t="s">
-        <v>152</v>
+        <v>147</v>
       </c>
       <c r="B7" s="12">
         <v>1.623</v>
       </c>
       <c r="C7" s="11" t="s">
-        <v>149</v>
+        <v>144</v>
       </c>
       <c r="D7" s="11" t="s">
-        <v>153</v>
+        <v>148</v>
       </c>
       <c r="E7" s="12">
         <v>2.5083000000000002</v>
       </c>
       <c r="F7" s="11" t="s">
-        <v>106</v>
+        <v>102</v>
       </c>
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.2">
       <c r="B8" s="11" t="s">
-        <v>154</v>
+        <v>149</v>
       </c>
       <c r="C8" s="12">
         <v>4.8811999999999998</v>
       </c>
       <c r="D8" s="11" t="s">
-        <v>106</v>
+        <v>102</v>
       </c>
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A9" s="11" t="s">
-        <v>155</v>
+        <v>150</v>
       </c>
       <c r="B9" s="12">
         <v>2.8490000000000002</v>
       </c>
       <c r="C9" s="11" t="s">
-        <v>145</v>
+        <v>140</v>
       </c>
       <c r="D9" s="11" t="s">
-        <v>156</v>
+        <v>151</v>
       </c>
       <c r="E9" s="12">
         <v>1.3037000000000001</v>
       </c>
       <c r="F9" s="11" t="s">
-        <v>106</v>
+        <v>102</v>
       </c>
       <c r="G9" s="11" t="s">
-        <v>157</v>
+        <v>152</v>
       </c>
       <c r="H9" s="12">
         <v>0</v>
       </c>
       <c r="I9" s="11" t="s">
-        <v>106</v>
+        <v>102</v>
       </c>
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A10" s="11" t="s">
-        <v>158</v>
+        <v>153</v>
       </c>
       <c r="B10" s="12">
         <v>1.7533000000000001</v>
       </c>
       <c r="C10" s="11" t="s">
-        <v>149</v>
+        <v>144</v>
       </c>
       <c r="D10" s="11" t="s">
-        <v>159</v>
+        <v>154</v>
       </c>
       <c r="E10" s="12">
         <v>1.6251</v>
       </c>
       <c r="F10" s="11" t="s">
-        <v>106</v>
+        <v>102</v>
       </c>
       <c r="G10" s="11" t="s">
-        <v>160</v>
+        <v>155</v>
       </c>
       <c r="H10" s="12">
         <v>2.3561000000000001</v>
       </c>
       <c r="I10" s="11" t="s">
-        <v>106</v>
+        <v>102</v>
       </c>
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A11" s="11" t="s">
-        <v>161</v>
+        <v>156</v>
       </c>
       <c r="B11" s="12">
         <v>1.7533000000000001</v>
       </c>
       <c r="C11" s="11" t="s">
-        <v>149</v>
+        <v>144</v>
       </c>
       <c r="D11" s="11" t="s">
-        <v>162</v>
+        <v>157</v>
       </c>
       <c r="E11" s="12">
         <v>1.6251</v>
       </c>
       <c r="F11" s="11" t="s">
-        <v>106</v>
+        <v>102</v>
       </c>
       <c r="G11" s="11" t="s">
-        <v>163</v>
+        <v>158</v>
       </c>
       <c r="H11" s="12">
         <v>0</v>
       </c>
       <c r="I11" s="11" t="s">
-        <v>106</v>
+        <v>102</v>
       </c>
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.2">
       <c r="B12" s="11" t="s">
-        <v>143</v>
+        <v>138</v>
       </c>
       <c r="C12" s="12">
         <v>3.2501000000000002</v>
       </c>
       <c r="D12" s="11" t="s">
-        <v>106</v>
+        <v>102</v>
       </c>
       <c r="E12" s="11" t="s">
-        <v>164</v>
+        <v>159</v>
       </c>
       <c r="F12" s="12">
         <v>-2.2875999999999999</v>
       </c>
       <c r="G12" s="11" t="s">
-        <v>106</v>
+        <v>102</v>
       </c>
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A13" s="11" t="s">
-        <v>165</v>
+        <v>160</v>
       </c>
       <c r="B13" s="12">
         <v>4.0709999999999997</v>
       </c>
       <c r="C13" s="11" t="s">
-        <v>145</v>
+        <v>140</v>
       </c>
       <c r="D13" s="11" t="s">
-        <v>166</v>
+        <v>161</v>
       </c>
       <c r="E13" s="12">
         <v>1.5583</v>
       </c>
       <c r="F13" s="11" t="s">
-        <v>106</v>
+        <v>102</v>
       </c>
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A14" s="11" t="s">
-        <v>167</v>
+        <v>162</v>
       </c>
       <c r="B14" s="12">
         <v>2.8490000000000002</v>
       </c>
       <c r="C14" s="11" t="s">
-        <v>145</v>
+        <v>140</v>
       </c>
       <c r="D14" s="11" t="s">
-        <v>168</v>
+        <v>163</v>
       </c>
       <c r="E14" s="12">
         <v>1.3037000000000001</v>
       </c>
       <c r="F14" s="11" t="s">
-        <v>106</v>
+        <v>102</v>
       </c>
     </row>
     <row r="15" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A15" s="11" t="s">
-        <v>169</v>
+        <v>164</v>
       </c>
       <c r="B15" s="12">
         <v>6.92</v>
       </c>
       <c r="C15" s="11" t="s">
-        <v>145</v>
+        <v>140</v>
       </c>
       <c r="D15" s="11" t="s">
-        <v>170</v>
+        <v>165</v>
       </c>
       <c r="E15" s="12">
         <v>2.0318000000000001</v>
       </c>
       <c r="F15" s="11" t="s">
-        <v>106</v>
+        <v>102</v>
       </c>
       <c r="G15" s="11" t="s">
-        <v>171</v>
+        <v>166</v>
       </c>
       <c r="H15" s="12">
         <v>5.0334000000000003</v>
       </c>
       <c r="I15" s="11" t="s">
-        <v>172</v>
+        <v>167</v>
       </c>
     </row>
     <row r="16" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A16" s="11" t="s">
-        <v>173</v>
+        <v>168</v>
       </c>
       <c r="B16" s="12">
         <v>16.225999999999999</v>
       </c>
       <c r="C16" s="11" t="s">
-        <v>145</v>
+        <v>140</v>
       </c>
       <c r="D16" s="11" t="s">
-        <v>174</v>
+        <v>169</v>
       </c>
       <c r="E16" s="12">
         <v>3.1111</v>
       </c>
       <c r="F16" s="11" t="s">
-        <v>106</v>
+        <v>102</v>
       </c>
       <c r="G16" s="11" t="s">
-        <v>175</v>
+        <v>170</v>
       </c>
       <c r="H16" s="12">
         <v>4.5262000000000002E-3</v>
       </c>
       <c r="I16" s="11" t="s">
-        <v>145</v>
+        <v>140</v>
       </c>
     </row>
     <row r="18" spans="1:74" x14ac:dyDescent="0.2">
       <c r="A18" s="11" t="s">
-        <v>176</v>
+        <v>171</v>
       </c>
       <c r="B18" s="11" t="s">
-        <v>137</v>
+        <v>132</v>
       </c>
       <c r="C18" s="11" t="s">
-        <v>138</v>
+        <v>133</v>
       </c>
     </row>
     <row r="19" spans="1:74" x14ac:dyDescent="0.2">
       <c r="A19" s="11" t="s">
-        <v>139</v>
+        <v>134</v>
       </c>
     </row>
     <row r="20" spans="1:74" x14ac:dyDescent="0.2">
       <c r="A20" s="11" t="s">
-        <v>144</v>
+        <v>139</v>
       </c>
       <c r="B20" s="12">
         <v>3.4369999999999998</v>
       </c>
       <c r="C20" s="11" t="s">
-        <v>145</v>
+        <v>140</v>
       </c>
       <c r="D20" s="11" t="s">
-        <v>146</v>
+        <v>141</v>
       </c>
       <c r="E20" s="12">
         <v>1.5347</v>
       </c>
       <c r="F20" s="11" t="s">
-        <v>106</v>
+        <v>102</v>
       </c>
       <c r="G20" s="11" t="s">
-        <v>140</v>
+        <v>135</v>
       </c>
       <c r="H20" s="12">
         <v>1.4594</v>
       </c>
       <c r="I20" s="11" t="s">
-        <v>141</v>
+        <v>136</v>
       </c>
     </row>
     <row r="21" spans="1:74" x14ac:dyDescent="0.2">
       <c r="A21" s="11" t="s">
-        <v>148</v>
+        <v>143</v>
       </c>
       <c r="B21" s="12">
         <v>1.3788</v>
       </c>
       <c r="C21" s="11" t="s">
-        <v>149</v>
+        <v>144</v>
       </c>
       <c r="D21" s="11" t="s">
-        <v>150</v>
+        <v>145</v>
       </c>
       <c r="E21" s="12">
         <v>2.4929000000000001</v>
       </c>
       <c r="F21" s="11" t="s">
-        <v>106</v>
+        <v>102</v>
       </c>
       <c r="G21" s="11" t="s">
-        <v>147</v>
+        <v>142</v>
       </c>
       <c r="H21" s="12">
         <v>0</v>
       </c>
       <c r="I21" s="11" t="s">
-        <v>145</v>
+        <v>140</v>
       </c>
     </row>
     <row r="22" spans="1:74" x14ac:dyDescent="0.2">
       <c r="A22" s="11" t="s">
-        <v>152</v>
+        <v>147</v>
       </c>
       <c r="B22" s="12">
         <v>1.4392</v>
       </c>
       <c r="C22" s="11" t="s">
-        <v>149</v>
+        <v>144</v>
       </c>
       <c r="D22" s="11" t="s">
-        <v>153</v>
+        <v>148</v>
       </c>
       <c r="E22" s="12">
         <v>2.3883000000000001</v>
       </c>
       <c r="F22" s="11" t="s">
-        <v>106</v>
+        <v>102</v>
       </c>
       <c r="G22" s="11" t="s">
-        <v>169</v>
+        <v>164</v>
       </c>
       <c r="H22" s="12">
         <v>6.1550000000000002</v>
       </c>
       <c r="I22" s="11" t="s">
-        <v>145</v>
+        <v>140</v>
       </c>
     </row>
     <row r="24" spans="1:74" x14ac:dyDescent="0.2">
       <c r="A24" s="11" t="s">
-        <v>155</v>
+        <v>150</v>
       </c>
       <c r="B24" s="12">
         <v>2.718</v>
       </c>
       <c r="C24" s="11" t="s">
-        <v>145</v>
+        <v>140</v>
       </c>
       <c r="D24" s="11" t="s">
-        <v>156</v>
+        <v>151</v>
       </c>
       <c r="E24" s="12">
         <v>1.3647</v>
       </c>
       <c r="F24" s="11" t="s">
-        <v>106</v>
+        <v>102</v>
       </c>
     </row>
     <row r="25" spans="1:74" x14ac:dyDescent="0.2">
       <c r="A25" s="11" t="s">
-        <v>158</v>
+        <v>153</v>
       </c>
       <c r="B25" s="12">
         <v>1.6726000000000001</v>
       </c>
       <c r="C25" s="11" t="s">
-        <v>149</v>
+        <v>144</v>
       </c>
       <c r="D25" s="11" t="s">
-        <v>159</v>
+        <v>154</v>
       </c>
       <c r="E25" s="12">
         <v>1.6251</v>
       </c>
       <c r="F25" s="11" t="s">
-        <v>106</v>
+        <v>102</v>
       </c>
     </row>
     <row r="26" spans="1:74" x14ac:dyDescent="0.2">
       <c r="A26" s="11" t="s">
-        <v>161</v>
+        <v>156</v>
       </c>
       <c r="B26" s="12">
         <v>1.6726000000000001</v>
       </c>
       <c r="C26" s="11" t="s">
-        <v>149</v>
+        <v>144</v>
       </c>
       <c r="D26" s="11" t="s">
-        <v>162</v>
+        <v>157</v>
       </c>
       <c r="E26" s="12">
         <v>1.6251</v>
       </c>
       <c r="F26" s="11" t="s">
-        <v>106</v>
+        <v>102</v>
       </c>
     </row>
     <row r="28" spans="1:74" x14ac:dyDescent="0.2">
@@ -29866,7 +29923,7 @@
       <c r="T29" s="13"/>
       <c r="U29" s="13"/>
       <c r="BM29" s="46" t="s">
-        <v>126</v>
+        <v>121</v>
       </c>
       <c r="BN29" s="46"/>
       <c r="BO29" s="46"/>
@@ -29880,106 +29937,106 @@
     </row>
     <row r="30" spans="1:74" s="34" customFormat="1" ht="13.5" x14ac:dyDescent="0.25">
       <c r="A30" s="44" t="s">
-        <v>130</v>
+        <v>125</v>
       </c>
       <c r="B30" s="35" t="s">
-        <v>129</v>
+        <v>124</v>
       </c>
       <c r="C30" s="35" t="s">
-        <v>116</v>
+        <v>111</v>
       </c>
       <c r="D30" s="35" t="s">
-        <v>117</v>
+        <v>112</v>
       </c>
       <c r="E30" s="35" t="s">
-        <v>118</v>
+        <v>113</v>
       </c>
       <c r="F30" s="35" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="G30" s="45" t="s">
+        <v>198</v>
+      </c>
+      <c r="H30" s="37" t="s">
+        <v>197</v>
+      </c>
+      <c r="I30" s="38" t="s">
+        <v>199</v>
+      </c>
+      <c r="J30" s="38" t="s">
+        <v>68</v>
+      </c>
+      <c r="K30" s="38" t="s">
+        <v>200</v>
+      </c>
+      <c r="L30" s="38" t="s">
+        <v>201</v>
+      </c>
+      <c r="M30" s="38" t="s">
+        <v>202</v>
+      </c>
+      <c r="N30" s="38" t="s">
         <v>203</v>
       </c>
-      <c r="H30" s="37" t="s">
-        <v>202</v>
-      </c>
-      <c r="I30" s="38" t="s">
+      <c r="O30" s="38" t="s">
         <v>204</v>
       </c>
-      <c r="J30" s="38" t="s">
-        <v>72</v>
-      </c>
-      <c r="K30" s="38" t="s">
+      <c r="P30" s="38" t="s">
         <v>205</v>
       </c>
-      <c r="L30" s="38" t="s">
+      <c r="Q30" s="38" t="s">
         <v>206</v>
       </c>
-      <c r="M30" s="38" t="s">
+      <c r="R30" s="38" t="s">
         <v>207</v>
       </c>
-      <c r="N30" s="38" t="s">
+      <c r="S30" s="38" t="s">
         <v>208</v>
       </c>
-      <c r="O30" s="38" t="s">
+      <c r="T30" s="38" t="s">
         <v>209</v>
       </c>
-      <c r="P30" s="38" t="s">
+      <c r="U30" s="38" t="s">
         <v>210</v>
       </c>
-      <c r="Q30" s="38" t="s">
+      <c r="V30" s="38" t="s">
         <v>211</v>
       </c>
-      <c r="R30" s="38" t="s">
+      <c r="W30" s="38" t="s">
         <v>212</v>
       </c>
-      <c r="S30" s="38" t="s">
+      <c r="X30" s="38" t="s">
         <v>213</v>
       </c>
-      <c r="T30" s="38" t="s">
+      <c r="Y30" s="38" t="s">
         <v>214</v>
       </c>
-      <c r="U30" s="38" t="s">
+      <c r="Z30" s="38" t="s">
         <v>215</v>
       </c>
-      <c r="V30" s="38" t="s">
+      <c r="AA30" s="38" t="s">
         <v>216</v>
       </c>
-      <c r="W30" s="38" t="s">
+      <c r="AB30" s="38" t="s">
         <v>217</v>
       </c>
-      <c r="X30" s="38" t="s">
+      <c r="AC30" s="38" t="s">
         <v>218</v>
       </c>
-      <c r="Y30" s="38" t="s">
+      <c r="AD30" s="38" t="s">
         <v>219</v>
       </c>
-      <c r="Z30" s="38" t="s">
+      <c r="AE30" s="38" t="s">
         <v>220</v>
       </c>
-      <c r="AA30" s="38" t="s">
+      <c r="AF30" s="38" t="s">
         <v>221</v>
       </c>
-      <c r="AB30" s="38" t="s">
+      <c r="AG30" s="38" t="s">
         <v>222</v>
       </c>
-      <c r="AC30" s="38" t="s">
+      <c r="AH30" s="38" t="s">
         <v>223</v>
-      </c>
-      <c r="AD30" s="38" t="s">
-        <v>224</v>
-      </c>
-      <c r="AE30" s="38" t="s">
-        <v>225</v>
-      </c>
-      <c r="AF30" s="38" t="s">
-        <v>226</v>
-      </c>
-      <c r="AG30" s="38" t="s">
-        <v>227</v>
-      </c>
-      <c r="AH30" s="38" t="s">
-        <v>228</v>
       </c>
       <c r="AI30" s="38"/>
       <c r="AJ30" s="38"/>
@@ -29988,169 +30045,169 @@
       <c r="AM30" s="38"/>
       <c r="AN30" s="38"/>
       <c r="AO30" s="38" t="s">
-        <v>229</v>
+        <v>224</v>
       </c>
       <c r="AP30" s="38" t="s">
+        <v>223</v>
+      </c>
+      <c r="AQ30" s="38" t="s">
+        <v>221</v>
+      </c>
+      <c r="AR30" s="38" t="s">
+        <v>225</v>
+      </c>
+      <c r="AS30" s="38" t="s">
+        <v>226</v>
+      </c>
+      <c r="AT30" s="38" t="s">
+        <v>227</v>
+      </c>
+      <c r="AU30" s="38" t="s">
         <v>228</v>
       </c>
-      <c r="AQ30" s="38" t="s">
-        <v>226</v>
-      </c>
-      <c r="AR30" s="38" t="s">
-        <v>230</v>
-      </c>
-      <c r="AS30" s="38" t="s">
-        <v>231</v>
-      </c>
-      <c r="AT30" s="38" t="s">
-        <v>232</v>
-      </c>
-      <c r="AU30" s="38" t="s">
-        <v>233</v>
-      </c>
       <c r="AV30" s="38" t="s">
+        <v>203</v>
+      </c>
+      <c r="AW30" s="38" t="s">
+        <v>204</v>
+      </c>
+      <c r="AX30" s="38" t="s">
+        <v>205</v>
+      </c>
+      <c r="AY30" s="38" t="s">
+        <v>206</v>
+      </c>
+      <c r="AZ30" s="38" t="s">
+        <v>207</v>
+      </c>
+      <c r="BA30" s="38" t="s">
         <v>208</v>
       </c>
-      <c r="AW30" s="38" t="s">
+      <c r="BB30" s="38" t="s">
         <v>209</v>
       </c>
-      <c r="AX30" s="38" t="s">
+      <c r="BC30" s="38" t="s">
         <v>210</v>
       </c>
-      <c r="AY30" s="38" t="s">
+      <c r="BD30" s="38" t="s">
         <v>211</v>
       </c>
-      <c r="AZ30" s="38" t="s">
+      <c r="BE30" s="38" t="s">
         <v>212</v>
       </c>
-      <c r="BA30" s="38" t="s">
+      <c r="BF30" s="38" t="s">
         <v>213</v>
       </c>
-      <c r="BB30" s="38" t="s">
+      <c r="BG30" s="39" t="s">
         <v>214</v>
-      </c>
-      <c r="BC30" s="38" t="s">
-        <v>215</v>
-      </c>
-      <c r="BD30" s="38" t="s">
-        <v>216</v>
-      </c>
-      <c r="BE30" s="38" t="s">
-        <v>217</v>
-      </c>
-      <c r="BF30" s="38" t="s">
-        <v>218</v>
-      </c>
-      <c r="BG30" s="39" t="s">
-        <v>219</v>
       </c>
       <c r="BL30" s="36"/>
       <c r="BM30" s="46" t="s">
-        <v>121</v>
+        <v>116</v>
       </c>
       <c r="BN30" s="46" t="s">
-        <v>122</v>
+        <v>117</v>
       </c>
       <c r="BO30" s="46" t="s">
-        <v>123</v>
+        <v>118</v>
       </c>
       <c r="BP30" s="46" t="s">
-        <v>124</v>
+        <v>119</v>
       </c>
       <c r="BQ30" s="46" t="s">
-        <v>125</v>
+        <v>120</v>
       </c>
       <c r="BR30" s="46" t="s">
-        <v>120</v>
+        <v>115</v>
       </c>
     </row>
     <row r="31" spans="1:74" s="34" customFormat="1" ht="12" x14ac:dyDescent="0.2">
       <c r="G31" s="34" t="s">
+        <v>99</v>
+      </c>
+      <c r="H31" s="34" t="s">
+        <v>99</v>
+      </c>
+      <c r="I31" s="40" t="s">
+        <v>100</v>
+      </c>
+      <c r="J31" s="40" t="s">
+        <v>101</v>
+      </c>
+      <c r="K31" s="40" t="s">
+        <v>102</v>
+      </c>
+      <c r="L31" s="40" t="s">
         <v>103</v>
       </c>
-      <c r="H31" s="34" t="s">
-        <v>103</v>
-      </c>
-      <c r="I31" s="40" t="s">
+      <c r="M31" s="40" t="s">
         <v>104</v>
       </c>
-      <c r="J31" s="40" t="s">
+      <c r="N31" s="40" t="s">
+        <v>104</v>
+      </c>
+      <c r="O31" s="40" t="s">
         <v>105</v>
       </c>
-      <c r="K31" s="40" t="s">
+      <c r="P31" s="40" t="s">
+        <v>105</v>
+      </c>
+      <c r="Q31" s="40" t="s">
+        <v>104</v>
+      </c>
+      <c r="R31" s="40" t="s">
+        <v>105</v>
+      </c>
+      <c r="S31" s="40" t="s">
+        <v>105</v>
+      </c>
+      <c r="T31" s="40" t="s">
+        <v>102</v>
+      </c>
+      <c r="U31" s="40" t="s">
+        <v>102</v>
+      </c>
+      <c r="V31" s="40" t="s">
+        <v>102</v>
+      </c>
+      <c r="W31" s="40" t="s">
+        <v>102</v>
+      </c>
+      <c r="X31" s="40" t="s">
+        <v>102</v>
+      </c>
+      <c r="Y31" s="40" t="s">
+        <v>102</v>
+      </c>
+      <c r="Z31" s="40" t="s">
+        <v>102</v>
+      </c>
+      <c r="AA31" s="40" t="s">
+        <v>102</v>
+      </c>
+      <c r="AB31" s="40" t="s">
+        <v>102</v>
+      </c>
+      <c r="AC31" s="40" t="s">
+        <v>102</v>
+      </c>
+      <c r="AD31" s="40" t="s">
+        <v>104</v>
+      </c>
+      <c r="AE31" s="40" t="s">
+        <v>104</v>
+      </c>
+      <c r="AF31" s="40" t="s">
+        <v>104</v>
+      </c>
+      <c r="AG31" s="40" t="s">
+        <v>104</v>
+      </c>
+      <c r="AH31" s="40" t="s">
+        <v>104</v>
+      </c>
+      <c r="AI31" s="40" t="s">
         <v>106</v>
-      </c>
-      <c r="L31" s="40" t="s">
-        <v>107</v>
-      </c>
-      <c r="M31" s="40" t="s">
-        <v>108</v>
-      </c>
-      <c r="N31" s="40" t="s">
-        <v>108</v>
-      </c>
-      <c r="O31" s="40" t="s">
-        <v>109</v>
-      </c>
-      <c r="P31" s="40" t="s">
-        <v>109</v>
-      </c>
-      <c r="Q31" s="40" t="s">
-        <v>108</v>
-      </c>
-      <c r="R31" s="40" t="s">
-        <v>109</v>
-      </c>
-      <c r="S31" s="40" t="s">
-        <v>109</v>
-      </c>
-      <c r="T31" s="40" t="s">
-        <v>106</v>
-      </c>
-      <c r="U31" s="40" t="s">
-        <v>106</v>
-      </c>
-      <c r="V31" s="40" t="s">
-        <v>106</v>
-      </c>
-      <c r="W31" s="40" t="s">
-        <v>106</v>
-      </c>
-      <c r="X31" s="40" t="s">
-        <v>106</v>
-      </c>
-      <c r="Y31" s="40" t="s">
-        <v>106</v>
-      </c>
-      <c r="Z31" s="40" t="s">
-        <v>106</v>
-      </c>
-      <c r="AA31" s="40" t="s">
-        <v>106</v>
-      </c>
-      <c r="AB31" s="40" t="s">
-        <v>106</v>
-      </c>
-      <c r="AC31" s="40" t="s">
-        <v>106</v>
-      </c>
-      <c r="AD31" s="40" t="s">
-        <v>108</v>
-      </c>
-      <c r="AE31" s="40" t="s">
-        <v>108</v>
-      </c>
-      <c r="AF31" s="40" t="s">
-        <v>108</v>
-      </c>
-      <c r="AG31" s="40" t="s">
-        <v>108</v>
-      </c>
-      <c r="AH31" s="40" t="s">
-        <v>108</v>
-      </c>
-      <c r="AI31" s="40" t="s">
-        <v>110</v>
       </c>
       <c r="AJ31" s="40"/>
       <c r="AK31" s="40"/>
@@ -30158,97 +30215,97 @@
       <c r="AM31" s="40"/>
       <c r="AN31" s="40"/>
       <c r="AO31" s="40" t="s">
+        <v>101</v>
+      </c>
+      <c r="AP31" s="40" t="s">
+        <v>104</v>
+      </c>
+      <c r="AQ31" s="40" t="s">
+        <v>104</v>
+      </c>
+      <c r="AR31" s="40" t="s">
+        <v>102</v>
+      </c>
+      <c r="AS31" s="40" t="s">
+        <v>102</v>
+      </c>
+      <c r="AT31" s="40" t="s">
+        <v>102</v>
+      </c>
+      <c r="AU31" s="40" t="s">
+        <v>102</v>
+      </c>
+      <c r="AV31" s="40" t="s">
+        <v>104</v>
+      </c>
+      <c r="AW31" s="40" t="s">
         <v>105</v>
       </c>
-      <c r="AP31" s="40" t="s">
-        <v>108</v>
-      </c>
-      <c r="AQ31" s="40" t="s">
-        <v>108</v>
-      </c>
-      <c r="AR31" s="40" t="s">
-        <v>106</v>
-      </c>
-      <c r="AS31" s="40" t="s">
-        <v>106</v>
-      </c>
-      <c r="AT31" s="40" t="s">
-        <v>106</v>
-      </c>
-      <c r="AU31" s="40" t="s">
-        <v>106</v>
-      </c>
-      <c r="AV31" s="40" t="s">
-        <v>108</v>
-      </c>
-      <c r="AW31" s="40" t="s">
-        <v>109</v>
-      </c>
       <c r="AX31" s="40" t="s">
-        <v>109</v>
+        <v>105</v>
       </c>
       <c r="AY31" s="40" t="s">
-        <v>108</v>
+        <v>104</v>
       </c>
       <c r="AZ31" s="40" t="s">
-        <v>109</v>
+        <v>105</v>
       </c>
       <c r="BA31" s="40" t="s">
-        <v>109</v>
+        <v>105</v>
       </c>
       <c r="BB31" s="40" t="s">
-        <v>106</v>
+        <v>102</v>
       </c>
       <c r="BC31" s="40" t="s">
-        <v>106</v>
+        <v>102</v>
       </c>
       <c r="BD31" s="40" t="s">
-        <v>106</v>
+        <v>102</v>
       </c>
       <c r="BE31" s="40" t="s">
-        <v>106</v>
+        <v>102</v>
       </c>
       <c r="BF31" s="40" t="s">
-        <v>106</v>
+        <v>102</v>
       </c>
       <c r="BG31" s="41" t="s">
-        <v>106</v>
+        <v>102</v>
       </c>
       <c r="BL31" s="36"/>
       <c r="BM31" s="41" t="s">
-        <v>106</v>
+        <v>102</v>
       </c>
       <c r="BN31" s="41" t="s">
-        <v>106</v>
+        <v>102</v>
       </c>
       <c r="BO31" s="41" t="s">
-        <v>106</v>
+        <v>102</v>
       </c>
       <c r="BP31" s="41" t="s">
-        <v>106</v>
+        <v>102</v>
       </c>
       <c r="BQ31" s="41" t="s">
-        <v>106</v>
+        <v>102</v>
       </c>
       <c r="BR31" s="41" t="s">
-        <v>106</v>
+        <v>102</v>
       </c>
     </row>
     <row r="32" spans="1:74" s="70" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A32" s="69" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="B32" s="69" t="s">
-        <v>236</v>
+        <v>232</v>
       </c>
       <c r="C32" s="8" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="D32" s="70" t="s">
-        <v>235</v>
+        <v>231</v>
       </c>
       <c r="E32" s="70" t="s">
-        <v>127</v>
+        <v>122</v>
       </c>
       <c r="F32" s="69"/>
       <c r="I32" s="71">
@@ -31106,155 +31163,155 @@
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A1" s="11" t="s">
-        <v>136</v>
+        <v>131</v>
       </c>
       <c r="B1" s="11" t="s">
-        <v>137</v>
+        <v>132</v>
       </c>
       <c r="C1" s="11" t="s">
-        <v>138</v>
+        <v>133</v>
       </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A2" s="11" t="s">
-        <v>139</v>
+        <v>134</v>
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A3" s="11" t="s">
-        <v>140</v>
+        <v>135</v>
       </c>
       <c r="B3" s="12">
         <v>1.2415</v>
       </c>
       <c r="C3" s="11" t="s">
-        <v>195</v>
+        <v>190</v>
       </c>
       <c r="D3" s="11" t="s">
-        <v>142</v>
+        <v>137</v>
       </c>
       <c r="E3" s="33">
         <v>0.35177000000000003</v>
       </c>
       <c r="F3" s="11" t="s">
-        <v>104</v>
+        <v>100</v>
       </c>
       <c r="G3" s="11" t="s">
-        <v>200</v>
+        <v>195</v>
       </c>
       <c r="H3" s="12">
         <v>12.669</v>
       </c>
       <c r="I3" s="11" t="s">
-        <v>106</v>
+        <v>102</v>
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A4" s="11" t="s">
-        <v>188</v>
+        <v>183</v>
       </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A5" s="11" t="s">
-        <v>144</v>
+        <v>139</v>
       </c>
       <c r="B5" s="12">
         <v>1.9330000000000001</v>
       </c>
       <c r="C5" s="11" t="s">
-        <v>184</v>
+        <v>179</v>
       </c>
       <c r="D5" s="11" t="s">
-        <v>146</v>
+        <v>141</v>
       </c>
       <c r="E5" s="12">
         <v>1.2477</v>
       </c>
       <c r="F5" s="11" t="s">
-        <v>106</v>
+        <v>102</v>
       </c>
       <c r="G5" s="11" t="s">
-        <v>147</v>
+        <v>142</v>
       </c>
       <c r="H5" s="12">
         <v>0</v>
       </c>
       <c r="I5" s="11" t="s">
-        <v>184</v>
+        <v>179</v>
       </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A6" s="11" t="s">
-        <v>148</v>
+        <v>143</v>
       </c>
       <c r="B6" s="12">
         <v>0.82430000000000003</v>
       </c>
       <c r="C6" s="11" t="s">
-        <v>189</v>
+        <v>184</v>
       </c>
       <c r="D6" s="11" t="s">
-        <v>150</v>
+        <v>145</v>
       </c>
       <c r="E6" s="12">
         <v>2.3447</v>
       </c>
       <c r="F6" s="11" t="s">
-        <v>106</v>
+        <v>102</v>
       </c>
       <c r="G6" s="11" t="s">
-        <v>194</v>
+        <v>189</v>
       </c>
       <c r="H6" s="12">
         <v>1.5705</v>
       </c>
       <c r="I6" s="11" t="s">
-        <v>237</v>
+        <v>233</v>
       </c>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A7" s="11" t="s">
-        <v>152</v>
+        <v>147</v>
       </c>
       <c r="B7" s="12">
         <v>1.3438000000000001</v>
       </c>
       <c r="C7" s="11" t="s">
-        <v>189</v>
+        <v>184</v>
       </c>
       <c r="D7" s="11" t="s">
-        <v>153</v>
+        <v>148</v>
       </c>
       <c r="E7" s="12">
         <v>1.4383999999999999</v>
       </c>
       <c r="F7" s="11" t="s">
-        <v>106</v>
+        <v>102</v>
       </c>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A8" s="11" t="s">
-        <v>193</v>
+        <v>188</v>
       </c>
       <c r="B8" s="11">
         <v>1.3808</v>
       </c>
       <c r="C8" s="12" t="s">
-        <v>189</v>
+        <v>184</v>
       </c>
       <c r="D8" s="11" t="s">
-        <v>154</v>
+        <v>149</v>
       </c>
       <c r="E8" s="11">
         <v>3.7831000000000001</v>
       </c>
       <c r="F8" s="11" t="s">
-        <v>106</v>
+        <v>102</v>
       </c>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A9" s="11" t="s">
-        <v>188</v>
+        <v>183</v>
       </c>
       <c r="B9" s="12"/>
       <c r="E9" s="12"/>
@@ -31262,246 +31319,246 @@
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A10" s="11" t="s">
-        <v>155</v>
+        <v>150</v>
       </c>
       <c r="B10" s="12">
         <v>2.7320000000000002</v>
       </c>
       <c r="C10" s="11" t="s">
-        <v>184</v>
+        <v>179</v>
       </c>
       <c r="D10" s="11" t="s">
-        <v>156</v>
+        <v>151</v>
       </c>
       <c r="E10" s="12">
         <v>1.4834000000000001</v>
       </c>
       <c r="F10" s="11" t="s">
-        <v>106</v>
+        <v>102</v>
       </c>
       <c r="G10" s="11" t="s">
-        <v>192</v>
+        <v>187</v>
       </c>
       <c r="H10" s="12">
         <v>0</v>
       </c>
       <c r="I10" s="11" t="s">
-        <v>106</v>
+        <v>102</v>
       </c>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A11" s="11" t="s">
-        <v>158</v>
+        <v>153</v>
       </c>
       <c r="B11" s="12">
         <v>1.3728</v>
       </c>
       <c r="C11" s="11" t="s">
-        <v>189</v>
+        <v>184</v>
       </c>
       <c r="D11" s="11" t="s">
-        <v>159</v>
+        <v>154</v>
       </c>
       <c r="E11" s="12">
         <v>1.9901</v>
       </c>
       <c r="F11" s="11" t="s">
-        <v>106</v>
+        <v>102</v>
       </c>
       <c r="G11" s="11" t="s">
-        <v>191</v>
+        <v>186</v>
       </c>
       <c r="H11" s="12">
         <v>-3.1254</v>
       </c>
       <c r="I11" s="11" t="s">
-        <v>106</v>
+        <v>102</v>
       </c>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A12" s="11" t="s">
-        <v>161</v>
+        <v>156</v>
       </c>
       <c r="B12" s="11">
         <v>1.3731</v>
       </c>
       <c r="C12" s="12" t="s">
-        <v>189</v>
+        <v>184</v>
       </c>
       <c r="D12" s="11" t="s">
-        <v>162</v>
+        <v>157</v>
       </c>
       <c r="E12" s="11">
         <v>1.9898</v>
       </c>
       <c r="F12" s="12" t="s">
-        <v>106</v>
+        <v>102</v>
       </c>
       <c r="G12" s="11" t="s">
-        <v>163</v>
+        <v>158</v>
       </c>
       <c r="H12" s="11">
         <v>-2.9999999999999997E-4</v>
       </c>
       <c r="I12" s="11" t="s">
-        <v>106</v>
+        <v>102</v>
       </c>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A13" s="11" t="s">
-        <v>190</v>
+        <v>185</v>
       </c>
       <c r="B13" s="12">
         <v>1.7235</v>
       </c>
       <c r="C13" s="11" t="s">
-        <v>189</v>
+        <v>184</v>
       </c>
       <c r="D13" s="11" t="s">
-        <v>143</v>
+        <v>138</v>
       </c>
       <c r="E13" s="12">
         <v>3.9799000000000002</v>
       </c>
       <c r="F13" s="11" t="s">
-        <v>106</v>
+        <v>102</v>
       </c>
       <c r="G13" s="11" t="s">
-        <v>164</v>
+        <v>159</v>
       </c>
       <c r="H13" s="11">
         <v>3.3281999999999998</v>
       </c>
       <c r="I13" s="11" t="s">
-        <v>106</v>
+        <v>102</v>
       </c>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A14" s="11" t="s">
-        <v>188</v>
+        <v>183</v>
       </c>
       <c r="B14" s="12"/>
       <c r="E14" s="12"/>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A15" s="11" t="s">
-        <v>199</v>
+        <v>194</v>
       </c>
       <c r="B15" s="12">
         <v>2.7320000000000002</v>
       </c>
       <c r="C15" s="11" t="s">
-        <v>184</v>
+        <v>179</v>
       </c>
       <c r="D15" s="11" t="s">
-        <v>198</v>
+        <v>193</v>
       </c>
       <c r="E15" s="12">
         <v>1.4834000000000001</v>
       </c>
       <c r="F15" s="11" t="s">
-        <v>106</v>
+        <v>102</v>
       </c>
       <c r="G15" s="11" t="s">
-        <v>171</v>
+        <v>166</v>
       </c>
       <c r="H15" s="12">
         <v>10.590999999999999</v>
       </c>
       <c r="I15" s="11" t="s">
-        <v>187</v>
+        <v>182</v>
       </c>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A16" s="11" t="s">
-        <v>197</v>
+        <v>192</v>
       </c>
       <c r="B16" s="12">
         <v>1.9330000000000001</v>
       </c>
       <c r="C16" s="11" t="s">
-        <v>184</v>
+        <v>179</v>
       </c>
       <c r="D16" s="11" t="s">
-        <v>196</v>
+        <v>191</v>
       </c>
       <c r="E16" s="12">
         <v>1.2477</v>
       </c>
       <c r="F16" s="11" t="s">
-        <v>106</v>
+        <v>102</v>
       </c>
       <c r="G16" s="11" t="s">
-        <v>175</v>
+        <v>170</v>
       </c>
       <c r="H16" s="12">
         <v>3.9746E-3</v>
       </c>
       <c r="I16" s="11" t="s">
-        <v>184</v>
+        <v>179</v>
       </c>
     </row>
     <row r="17" spans="1:79" x14ac:dyDescent="0.2">
       <c r="A17" s="11" t="s">
-        <v>169</v>
+        <v>164</v>
       </c>
       <c r="B17" s="11">
         <v>4.665</v>
       </c>
       <c r="C17" s="11" t="s">
-        <v>184</v>
+        <v>179</v>
       </c>
       <c r="D17" s="11" t="s">
-        <v>170</v>
+        <v>165</v>
       </c>
       <c r="E17" s="11">
         <v>1.9383999999999999</v>
       </c>
       <c r="F17" s="11" t="s">
-        <v>106</v>
+        <v>102</v>
       </c>
     </row>
     <row r="18" spans="1:79" x14ac:dyDescent="0.2">
       <c r="A18" s="11" t="s">
-        <v>186</v>
+        <v>181</v>
       </c>
       <c r="B18" s="11">
         <v>16.792000000000002</v>
       </c>
       <c r="C18" s="11" t="s">
-        <v>184</v>
+        <v>179</v>
       </c>
       <c r="D18" s="11" t="s">
-        <v>185</v>
+        <v>180</v>
       </c>
       <c r="E18" s="11">
         <v>3.6777000000000002</v>
       </c>
       <c r="F18" s="11" t="s">
-        <v>106</v>
+        <v>102</v>
       </c>
     </row>
     <row r="19" spans="1:79" x14ac:dyDescent="0.2">
       <c r="A19" s="11" t="s">
-        <v>188</v>
+        <v>183</v>
       </c>
     </row>
     <row r="20" spans="1:79" x14ac:dyDescent="0.2">
       <c r="A20" s="11" t="s">
-        <v>176</v>
+        <v>171</v>
       </c>
       <c r="B20" s="12" t="s">
-        <v>137</v>
+        <v>132</v>
       </c>
       <c r="C20" s="11" t="s">
-        <v>138</v>
+        <v>133</v>
       </c>
       <c r="E20" s="12"/>
       <c r="H20" s="12"/>
     </row>
     <row r="21" spans="1:79" x14ac:dyDescent="0.2">
       <c r="A21" s="11" t="s">
-        <v>139</v>
+        <v>134</v>
       </c>
       <c r="B21" s="12"/>
       <c r="E21" s="12"/>
@@ -31515,37 +31572,37 @@
     </row>
     <row r="22" spans="1:79" x14ac:dyDescent="0.2">
       <c r="A22" s="11" t="s">
-        <v>144</v>
+        <v>139</v>
       </c>
       <c r="B22" s="12">
         <v>1.5429999999999999</v>
       </c>
       <c r="C22" s="11" t="s">
-        <v>184</v>
+        <v>179</v>
       </c>
       <c r="D22" s="11" t="s">
-        <v>146</v>
+        <v>141</v>
       </c>
       <c r="E22" s="12">
         <v>1.2444</v>
       </c>
       <c r="F22" s="11" t="s">
-        <v>106</v>
+        <v>102</v>
       </c>
       <c r="G22" s="11" t="s">
-        <v>140</v>
+        <v>135</v>
       </c>
       <c r="H22" s="12">
         <v>0.99655000000000005</v>
       </c>
       <c r="I22" s="11" t="s">
-        <v>195</v>
+        <v>190</v>
       </c>
       <c r="M22" s="15"/>
       <c r="N22" s="15"/>
       <c r="O22" s="15"/>
       <c r="BV22" s="46" t="s">
-        <v>126</v>
+        <v>121</v>
       </c>
       <c r="BW22" s="46"/>
       <c r="BX22" s="46"/>
@@ -31555,127 +31612,127 @@
     </row>
     <row r="23" spans="1:79" ht="18" x14ac:dyDescent="0.35">
       <c r="A23" s="11" t="s">
-        <v>148</v>
+        <v>143</v>
       </c>
       <c r="B23" s="11">
         <v>0.6583</v>
       </c>
       <c r="C23" s="11" t="s">
-        <v>189</v>
+        <v>184</v>
       </c>
       <c r="D23" s="11" t="s">
-        <v>150</v>
+        <v>145</v>
       </c>
       <c r="E23" s="11">
         <v>2.3441999999999998</v>
       </c>
       <c r="F23" s="11" t="s">
-        <v>106</v>
+        <v>102</v>
       </c>
       <c r="G23" s="11" t="s">
-        <v>147</v>
+        <v>142</v>
       </c>
       <c r="H23" s="11">
         <v>0</v>
       </c>
       <c r="I23" s="11" t="s">
-        <v>184</v>
+        <v>179</v>
       </c>
       <c r="L23" s="11" t="s">
-        <v>116</v>
+        <v>111</v>
       </c>
       <c r="M23" s="13" t="s">
-        <v>143</v>
+        <v>138</v>
       </c>
       <c r="N23" s="13" t="s">
-        <v>154</v>
+        <v>149</v>
       </c>
       <c r="O23" s="11" t="s">
-        <v>177</v>
+        <v>172</v>
       </c>
       <c r="P23" s="16" t="s">
-        <v>102</v>
+        <v>98</v>
       </c>
       <c r="Q23" s="17" t="s">
-        <v>111</v>
+        <v>107</v>
       </c>
       <c r="R23" s="18" t="s">
+        <v>67</v>
+      </c>
+      <c r="S23" s="18" t="s">
+        <v>68</v>
+      </c>
+      <c r="T23" s="18" t="s">
+        <v>69</v>
+      </c>
+      <c r="U23" s="18" t="s">
+        <v>70</v>
+      </c>
+      <c r="V23" s="18" t="s">
         <v>71</v>
       </c>
-      <c r="S23" s="18" t="s">
+      <c r="W23" s="18" t="s">
         <v>72</v>
       </c>
-      <c r="T23" s="18" t="s">
+      <c r="X23" s="18" t="s">
         <v>73</v>
       </c>
-      <c r="U23" s="18" t="s">
+      <c r="Y23" s="18" t="s">
         <v>74</v>
       </c>
-      <c r="V23" s="18" t="s">
+      <c r="Z23" s="18" t="s">
         <v>75</v>
       </c>
-      <c r="W23" s="18" t="s">
+      <c r="AA23" s="18" t="s">
         <v>76</v>
       </c>
-      <c r="X23" s="18" t="s">
+      <c r="AB23" s="18" t="s">
         <v>77</v>
       </c>
-      <c r="Y23" s="18" t="s">
+      <c r="AC23" s="18" t="s">
         <v>78</v>
       </c>
-      <c r="Z23" s="18" t="s">
+      <c r="AD23" s="18" t="s">
         <v>79</v>
       </c>
-      <c r="AA23" s="18" t="s">
+      <c r="AE23" s="18" t="s">
         <v>80</v>
       </c>
-      <c r="AB23" s="18" t="s">
+      <c r="AF23" s="18" t="s">
         <v>81</v>
       </c>
-      <c r="AC23" s="18" t="s">
+      <c r="AG23" s="18" t="s">
         <v>82</v>
       </c>
-      <c r="AD23" s="18" t="s">
+      <c r="AH23" s="18" t="s">
         <v>83</v>
       </c>
-      <c r="AE23" s="18" t="s">
+      <c r="AI23" s="18" t="s">
         <v>84</v>
       </c>
-      <c r="AF23" s="18" t="s">
+      <c r="AJ23" s="18" t="s">
         <v>85</v>
       </c>
-      <c r="AG23" s="18" t="s">
+      <c r="AK23" s="18" t="s">
         <v>86</v>
       </c>
-      <c r="AH23" s="18" t="s">
+      <c r="AL23" s="18" t="s">
         <v>87</v>
       </c>
-      <c r="AI23" s="18" t="s">
+      <c r="AM23" s="18" t="s">
         <v>88</v>
       </c>
-      <c r="AJ23" s="18" t="s">
+      <c r="AN23" s="18" t="s">
         <v>89</v>
       </c>
-      <c r="AK23" s="18" t="s">
+      <c r="AO23" s="18" t="s">
         <v>90</v>
       </c>
-      <c r="AL23" s="18" t="s">
+      <c r="AP23" s="18" t="s">
         <v>91</v>
       </c>
-      <c r="AM23" s="18" t="s">
+      <c r="AQ23" s="18" t="s">
         <v>92</v>
-      </c>
-      <c r="AN23" s="18" t="s">
-        <v>93</v>
-      </c>
-      <c r="AO23" s="18" t="s">
-        <v>94</v>
-      </c>
-      <c r="AP23" s="18" t="s">
-        <v>95</v>
-      </c>
-      <c r="AQ23" s="18" t="s">
-        <v>96</v>
       </c>
       <c r="AR23" s="18"/>
       <c r="AS23" s="18"/>
@@ -31684,202 +31741,202 @@
       <c r="AV23" s="18"/>
       <c r="AW23" s="18"/>
       <c r="AX23" s="18" t="s">
+        <v>93</v>
+      </c>
+      <c r="AY23" s="18" t="s">
+        <v>92</v>
+      </c>
+      <c r="AZ23" s="18" t="s">
+        <v>90</v>
+      </c>
+      <c r="BA23" s="18" t="s">
+        <v>94</v>
+      </c>
+      <c r="BB23" s="18" t="s">
+        <v>95</v>
+      </c>
+      <c r="BC23" s="18" t="s">
+        <v>96</v>
+      </c>
+      <c r="BD23" s="18" t="s">
         <v>97</v>
       </c>
-      <c r="AY23" s="18" t="s">
-        <v>96</v>
-      </c>
-      <c r="AZ23" s="18" t="s">
-        <v>94</v>
-      </c>
-      <c r="BA23" s="18" t="s">
-        <v>98</v>
-      </c>
-      <c r="BB23" s="18" t="s">
-        <v>99</v>
-      </c>
-      <c r="BC23" s="18" t="s">
-        <v>100</v>
-      </c>
-      <c r="BD23" s="18" t="s">
-        <v>101</v>
-      </c>
       <c r="BE23" s="18" t="s">
+        <v>72</v>
+      </c>
+      <c r="BF23" s="18" t="s">
+        <v>73</v>
+      </c>
+      <c r="BG23" s="18" t="s">
+        <v>74</v>
+      </c>
+      <c r="BH23" s="18" t="s">
+        <v>75</v>
+      </c>
+      <c r="BI23" s="18" t="s">
         <v>76</v>
       </c>
-      <c r="BF23" s="18" t="s">
+      <c r="BJ23" s="18" t="s">
         <v>77</v>
       </c>
-      <c r="BG23" s="18" t="s">
+      <c r="BK23" s="18" t="s">
         <v>78</v>
       </c>
-      <c r="BH23" s="18" t="s">
+      <c r="BL23" s="18" t="s">
         <v>79</v>
       </c>
-      <c r="BI23" s="18" t="s">
+      <c r="BM23" s="18" t="s">
         <v>80</v>
       </c>
-      <c r="BJ23" s="18" t="s">
+      <c r="BN23" s="18" t="s">
         <v>81</v>
       </c>
-      <c r="BK23" s="18" t="s">
+      <c r="BO23" s="18" t="s">
         <v>82</v>
       </c>
-      <c r="BL23" s="18" t="s">
+      <c r="BP23" s="19" t="s">
         <v>83</v>
       </c>
-      <c r="BM23" s="18" t="s">
-        <v>84</v>
-      </c>
-      <c r="BN23" s="18" t="s">
-        <v>85</v>
-      </c>
-      <c r="BO23" s="18" t="s">
-        <v>86</v>
-      </c>
-      <c r="BP23" s="19" t="s">
-        <v>87</v>
-      </c>
       <c r="BV23" s="46" t="s">
-        <v>121</v>
+        <v>116</v>
       </c>
       <c r="BW23" s="46" t="s">
-        <v>122</v>
+        <v>117</v>
       </c>
       <c r="BX23" s="46" t="s">
-        <v>123</v>
+        <v>118</v>
       </c>
       <c r="BY23" s="46" t="s">
-        <v>124</v>
+        <v>119</v>
       </c>
       <c r="BZ23" s="46" t="s">
-        <v>125</v>
+        <v>120</v>
       </c>
       <c r="CA23" s="46" t="s">
-        <v>120</v>
+        <v>115</v>
       </c>
     </row>
     <row r="24" spans="1:79" x14ac:dyDescent="0.2">
       <c r="A24" s="11" t="s">
-        <v>152</v>
+        <v>147</v>
       </c>
       <c r="B24" s="12">
         <v>1.0726</v>
       </c>
       <c r="C24" s="11" t="s">
-        <v>189</v>
+        <v>184</v>
       </c>
       <c r="D24" s="11" t="s">
-        <v>153</v>
+        <v>148</v>
       </c>
       <c r="E24" s="12">
         <v>1.4389000000000001</v>
       </c>
       <c r="F24" s="11" t="s">
-        <v>106</v>
+        <v>102</v>
       </c>
       <c r="G24" s="11" t="s">
-        <v>194</v>
+        <v>189</v>
       </c>
       <c r="H24" s="11">
         <v>1.5704</v>
       </c>
       <c r="I24" s="11" t="s">
-        <v>237</v>
+        <v>233</v>
       </c>
       <c r="M24" s="20" t="s">
-        <v>106</v>
+        <v>102</v>
       </c>
       <c r="N24" s="20" t="s">
-        <v>106</v>
+        <v>102</v>
       </c>
       <c r="O24" s="14"/>
       <c r="P24" s="14" t="s">
+        <v>99</v>
+      </c>
+      <c r="Q24" s="15" t="s">
+        <v>99</v>
+      </c>
+      <c r="R24" s="20" t="s">
+        <v>100</v>
+      </c>
+      <c r="S24" s="20" t="s">
+        <v>101</v>
+      </c>
+      <c r="T24" s="20" t="s">
+        <v>102</v>
+      </c>
+      <c r="U24" s="20" t="s">
         <v>103</v>
       </c>
-      <c r="Q24" s="15" t="s">
-        <v>103</v>
-      </c>
-      <c r="R24" s="20" t="s">
+      <c r="V24" s="20" t="s">
         <v>104</v>
       </c>
-      <c r="S24" s="20" t="s">
+      <c r="W24" s="20" t="s">
+        <v>104</v>
+      </c>
+      <c r="X24" s="20" t="s">
         <v>105</v>
       </c>
-      <c r="T24" s="20" t="s">
+      <c r="Y24" s="20" t="s">
+        <v>105</v>
+      </c>
+      <c r="Z24" s="20" t="s">
+        <v>104</v>
+      </c>
+      <c r="AA24" s="20" t="s">
+        <v>105</v>
+      </c>
+      <c r="AB24" s="20" t="s">
+        <v>105</v>
+      </c>
+      <c r="AC24" s="20" t="s">
+        <v>102</v>
+      </c>
+      <c r="AD24" s="20" t="s">
+        <v>102</v>
+      </c>
+      <c r="AE24" s="20" t="s">
+        <v>102</v>
+      </c>
+      <c r="AF24" s="20" t="s">
+        <v>102</v>
+      </c>
+      <c r="AG24" s="20" t="s">
+        <v>102</v>
+      </c>
+      <c r="AH24" s="20" t="s">
+        <v>102</v>
+      </c>
+      <c r="AI24" s="20" t="s">
+        <v>102</v>
+      </c>
+      <c r="AJ24" s="20" t="s">
+        <v>102</v>
+      </c>
+      <c r="AK24" s="20" t="s">
+        <v>102</v>
+      </c>
+      <c r="AL24" s="20" t="s">
+        <v>102</v>
+      </c>
+      <c r="AM24" s="20" t="s">
+        <v>104</v>
+      </c>
+      <c r="AN24" s="20" t="s">
+        <v>104</v>
+      </c>
+      <c r="AO24" s="20" t="s">
+        <v>104</v>
+      </c>
+      <c r="AP24" s="20" t="s">
+        <v>104</v>
+      </c>
+      <c r="AQ24" s="20" t="s">
+        <v>104</v>
+      </c>
+      <c r="AR24" s="20" t="s">
         <v>106</v>
-      </c>
-      <c r="U24" s="20" t="s">
-        <v>107</v>
-      </c>
-      <c r="V24" s="20" t="s">
-        <v>108</v>
-      </c>
-      <c r="W24" s="20" t="s">
-        <v>108</v>
-      </c>
-      <c r="X24" s="20" t="s">
-        <v>109</v>
-      </c>
-      <c r="Y24" s="20" t="s">
-        <v>109</v>
-      </c>
-      <c r="Z24" s="20" t="s">
-        <v>108</v>
-      </c>
-      <c r="AA24" s="20" t="s">
-        <v>109</v>
-      </c>
-      <c r="AB24" s="20" t="s">
-        <v>109</v>
-      </c>
-      <c r="AC24" s="20" t="s">
-        <v>106</v>
-      </c>
-      <c r="AD24" s="20" t="s">
-        <v>106</v>
-      </c>
-      <c r="AE24" s="20" t="s">
-        <v>106</v>
-      </c>
-      <c r="AF24" s="20" t="s">
-        <v>106</v>
-      </c>
-      <c r="AG24" s="20" t="s">
-        <v>106</v>
-      </c>
-      <c r="AH24" s="20" t="s">
-        <v>106</v>
-      </c>
-      <c r="AI24" s="20" t="s">
-        <v>106</v>
-      </c>
-      <c r="AJ24" s="20" t="s">
-        <v>106</v>
-      </c>
-      <c r="AK24" s="20" t="s">
-        <v>106</v>
-      </c>
-      <c r="AL24" s="20" t="s">
-        <v>106</v>
-      </c>
-      <c r="AM24" s="20" t="s">
-        <v>108</v>
-      </c>
-      <c r="AN24" s="20" t="s">
-        <v>108</v>
-      </c>
-      <c r="AO24" s="20" t="s">
-        <v>108</v>
-      </c>
-      <c r="AP24" s="20" t="s">
-        <v>108</v>
-      </c>
-      <c r="AQ24" s="20" t="s">
-        <v>108</v>
-      </c>
-      <c r="AR24" s="20" t="s">
-        <v>110</v>
       </c>
       <c r="AS24" s="20"/>
       <c r="AT24" s="20"/>
@@ -31887,100 +31944,100 @@
       <c r="AV24" s="20"/>
       <c r="AW24" s="20"/>
       <c r="AX24" s="20" t="s">
+        <v>101</v>
+      </c>
+      <c r="AY24" s="20" t="s">
+        <v>104</v>
+      </c>
+      <c r="AZ24" s="20" t="s">
+        <v>104</v>
+      </c>
+      <c r="BA24" s="20" t="s">
+        <v>102</v>
+      </c>
+      <c r="BB24" s="20" t="s">
+        <v>102</v>
+      </c>
+      <c r="BC24" s="20" t="s">
+        <v>102</v>
+      </c>
+      <c r="BD24" s="20" t="s">
+        <v>102</v>
+      </c>
+      <c r="BE24" s="20" t="s">
+        <v>104</v>
+      </c>
+      <c r="BF24" s="20" t="s">
         <v>105</v>
       </c>
-      <c r="AY24" s="20" t="s">
-        <v>108</v>
-      </c>
-      <c r="AZ24" s="20" t="s">
-        <v>108</v>
-      </c>
-      <c r="BA24" s="20" t="s">
-        <v>106</v>
-      </c>
-      <c r="BB24" s="20" t="s">
-        <v>106</v>
-      </c>
-      <c r="BC24" s="20" t="s">
-        <v>106</v>
-      </c>
-      <c r="BD24" s="20" t="s">
-        <v>106</v>
-      </c>
-      <c r="BE24" s="20" t="s">
-        <v>108</v>
-      </c>
-      <c r="BF24" s="20" t="s">
-        <v>109</v>
-      </c>
       <c r="BG24" s="20" t="s">
-        <v>109</v>
+        <v>105</v>
       </c>
       <c r="BH24" s="20" t="s">
-        <v>108</v>
+        <v>104</v>
       </c>
       <c r="BI24" s="20" t="s">
-        <v>109</v>
+        <v>105</v>
       </c>
       <c r="BJ24" s="20" t="s">
-        <v>109</v>
+        <v>105</v>
       </c>
       <c r="BK24" s="20" t="s">
-        <v>106</v>
+        <v>102</v>
       </c>
       <c r="BL24" s="20" t="s">
-        <v>106</v>
+        <v>102</v>
       </c>
       <c r="BM24" s="20" t="s">
-        <v>106</v>
+        <v>102</v>
       </c>
       <c r="BN24" s="20" t="s">
-        <v>106</v>
+        <v>102</v>
       </c>
       <c r="BO24" s="20" t="s">
-        <v>106</v>
+        <v>102</v>
       </c>
       <c r="BP24" s="21" t="s">
-        <v>106</v>
+        <v>102</v>
       </c>
       <c r="BV24" s="41" t="s">
-        <v>106</v>
+        <v>102</v>
       </c>
       <c r="BW24" s="41" t="s">
-        <v>106</v>
+        <v>102</v>
       </c>
       <c r="BX24" s="41" t="s">
-        <v>106</v>
+        <v>102</v>
       </c>
       <c r="BY24" s="41" t="s">
-        <v>106</v>
+        <v>102</v>
       </c>
       <c r="BZ24" s="41" t="s">
-        <v>106</v>
+        <v>102</v>
       </c>
       <c r="CA24" s="41" t="s">
-        <v>106</v>
+        <v>102</v>
       </c>
     </row>
     <row r="25" spans="1:79" x14ac:dyDescent="0.2">
       <c r="A25" s="11" t="s">
-        <v>193</v>
+        <v>188</v>
       </c>
       <c r="B25" s="12">
         <v>1.1101000000000001</v>
       </c>
       <c r="C25" s="11" t="s">
-        <v>189</v>
+        <v>184</v>
       </c>
       <c r="E25" s="12"/>
       <c r="J25" s="32" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="K25" s="31" t="s">
-        <v>135</v>
+        <v>130</v>
       </c>
       <c r="L25" s="11" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="M25" s="22">
         <f>E13</f>
@@ -32215,202 +32272,202 @@
     </row>
     <row r="26" spans="1:79" x14ac:dyDescent="0.2">
       <c r="A26" s="11" t="s">
-        <v>188</v>
+        <v>183</v>
       </c>
       <c r="B26" s="12"/>
       <c r="E26" s="12"/>
     </row>
     <row r="27" spans="1:79" x14ac:dyDescent="0.2">
       <c r="A27" s="11" t="s">
-        <v>155</v>
+        <v>150</v>
       </c>
       <c r="B27" s="11">
         <v>2.17</v>
       </c>
       <c r="C27" s="11" t="s">
-        <v>184</v>
+        <v>179</v>
       </c>
       <c r="D27" s="11" t="s">
-        <v>156</v>
+        <v>151</v>
       </c>
       <c r="E27" s="11">
         <v>1.4757</v>
       </c>
       <c r="F27" s="11" t="s">
-        <v>106</v>
+        <v>102</v>
       </c>
       <c r="G27" s="11" t="s">
-        <v>192</v>
+        <v>187</v>
       </c>
       <c r="H27" s="11">
         <v>0</v>
       </c>
       <c r="I27" s="11" t="s">
-        <v>106</v>
+        <v>102</v>
       </c>
     </row>
     <row r="28" spans="1:79" x14ac:dyDescent="0.2">
       <c r="A28" s="11" t="s">
-        <v>158</v>
+        <v>153</v>
       </c>
       <c r="B28" s="11">
         <v>1.0904</v>
       </c>
       <c r="C28" s="11" t="s">
-        <v>189</v>
+        <v>184</v>
       </c>
       <c r="D28" s="11" t="s">
-        <v>159</v>
+        <v>154</v>
       </c>
       <c r="E28" s="11">
         <v>1.9902</v>
       </c>
       <c r="F28" s="11" t="s">
-        <v>106</v>
+        <v>102</v>
       </c>
       <c r="G28" s="11" t="s">
-        <v>191</v>
+        <v>186</v>
       </c>
       <c r="H28" s="11">
         <v>-3.1640999999999999</v>
       </c>
       <c r="I28" s="11" t="s">
-        <v>106</v>
+        <v>102</v>
       </c>
     </row>
     <row r="29" spans="1:79" x14ac:dyDescent="0.2">
       <c r="A29" s="11" t="s">
-        <v>161</v>
+        <v>156</v>
       </c>
       <c r="B29" s="11">
         <v>1.0907</v>
       </c>
       <c r="C29" s="11" t="s">
-        <v>189</v>
+        <v>184</v>
       </c>
       <c r="D29" s="11" t="s">
-        <v>162</v>
+        <v>157</v>
       </c>
       <c r="E29" s="11">
         <v>1.9897</v>
       </c>
       <c r="F29" s="11" t="s">
-        <v>106</v>
+        <v>102</v>
       </c>
       <c r="G29" s="11" t="s">
-        <v>163</v>
+        <v>158</v>
       </c>
       <c r="H29" s="11">
         <v>-4.0000000000000002E-4</v>
       </c>
       <c r="I29" s="11" t="s">
-        <v>106</v>
+        <v>102</v>
       </c>
     </row>
     <row r="30" spans="1:79" x14ac:dyDescent="0.2">
       <c r="A30" s="11" t="s">
-        <v>190</v>
+        <v>185</v>
       </c>
       <c r="B30" s="11">
         <v>1.3626</v>
       </c>
       <c r="C30" s="11" t="s">
-        <v>189</v>
+        <v>184</v>
       </c>
       <c r="D30" s="11" t="s">
-        <v>164</v>
+        <v>159</v>
       </c>
       <c r="E30" s="11">
         <v>3.4028999999999998</v>
       </c>
       <c r="F30" s="11" t="s">
-        <v>106</v>
+        <v>102</v>
       </c>
     </row>
     <row r="31" spans="1:79" x14ac:dyDescent="0.2">
       <c r="A31" s="11" t="s">
-        <v>188</v>
+        <v>183</v>
       </c>
     </row>
     <row r="32" spans="1:79" x14ac:dyDescent="0.2">
       <c r="A32" s="11" t="s">
-        <v>169</v>
+        <v>164</v>
       </c>
       <c r="B32" s="11">
         <v>3.7130000000000001</v>
       </c>
       <c r="C32" s="11" t="s">
-        <v>184</v>
+        <v>179</v>
       </c>
       <c r="D32" s="11" t="s">
-        <v>170</v>
+        <v>165</v>
       </c>
       <c r="E32" s="11">
         <v>1.9303999999999999</v>
       </c>
       <c r="F32" s="11" t="s">
-        <v>106</v>
+        <v>102</v>
       </c>
       <c r="G32" s="11" t="s">
-        <v>171</v>
+        <v>166</v>
       </c>
       <c r="H32" s="11">
         <v>8.0030999999999999</v>
       </c>
       <c r="I32" s="11" t="s">
-        <v>187</v>
+        <v>182</v>
       </c>
     </row>
     <row r="33" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A33" s="11" t="s">
-        <v>186</v>
+        <v>181</v>
       </c>
       <c r="B33" s="11">
         <v>13.69</v>
       </c>
       <c r="C33" s="11" t="s">
-        <v>184</v>
+        <v>179</v>
       </c>
       <c r="D33" s="11" t="s">
-        <v>185</v>
+        <v>180</v>
       </c>
       <c r="E33" s="11">
         <v>3.7065000000000001</v>
       </c>
       <c r="F33" s="11" t="s">
-        <v>106</v>
+        <v>102</v>
       </c>
       <c r="G33" s="11" t="s">
-        <v>175</v>
+        <v>170</v>
       </c>
       <c r="H33" s="11">
         <v>3.1903000000000001E-3</v>
       </c>
       <c r="I33" s="11" t="s">
-        <v>184</v>
+        <v>179</v>
       </c>
     </row>
     <row r="36" spans="1:10" ht="60" x14ac:dyDescent="0.2">
       <c r="A36" s="30" t="s">
-        <v>183</v>
+        <v>178</v>
       </c>
       <c r="B36" s="28">
         <v>50</v>
       </c>
       <c r="C36" s="29" t="s">
-        <v>182</v>
+        <v>177</v>
       </c>
       <c r="D36" s="28" t="s">
-        <v>181</v>
+        <v>176</v>
       </c>
       <c r="E36" s="28" t="s">
-        <v>180</v>
+        <v>175</v>
       </c>
       <c r="F36" s="28" t="s">
-        <v>179</v>
+        <v>174</v>
       </c>
       <c r="G36" s="28" t="s">
-        <v>178</v>
+        <v>173</v>
       </c>
       <c r="H36" s="27">
         <v>2</v>
@@ -32445,63 +32502,63 @@
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" s="6" t="s">
-        <v>130</v>
+        <v>125</v>
       </c>
       <c r="B1" s="4" t="s">
-        <v>129</v>
+        <v>124</v>
       </c>
       <c r="C1" s="4" t="s">
-        <v>116</v>
+        <v>111</v>
       </c>
       <c r="D1" s="4" t="s">
-        <v>117</v>
+        <v>112</v>
       </c>
       <c r="E1" s="4" t="s">
-        <v>118</v>
+        <v>113</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B2" t="s">
-        <v>131</v>
+        <v>126</v>
       </c>
       <c r="C2" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="E2" t="s">
-        <v>128</v>
+        <v>123</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B3" t="s">
-        <v>132</v>
+        <v>127</v>
       </c>
       <c r="C3" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="E3" t="s">
-        <v>128</v>
+        <v>123</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B4" t="s">
-        <v>133</v>
+        <v>128</v>
       </c>
       <c r="C4" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="E4" t="s">
-        <v>128</v>
+        <v>123</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B5" t="s">
-        <v>134</v>
+        <v>129</v>
       </c>
       <c r="C5" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="E5" t="s">
-        <v>128</v>
+        <v>123</v>
       </c>
     </row>
   </sheetData>
@@ -32528,61 +32585,61 @@
   <sheetData>
     <row r="1" spans="1:3" ht="23.25" x14ac:dyDescent="0.35">
       <c r="A1" s="53" t="s">
-        <v>241</v>
+        <v>237</v>
       </c>
       <c r="B1" s="53" t="s">
-        <v>244</v>
+        <v>240</v>
       </c>
       <c r="C1" s="53" t="s">
-        <v>247</v>
+        <v>243</v>
       </c>
     </row>
     <row r="2" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A2" s="54" t="s">
-        <v>242</v>
+        <v>238</v>
       </c>
       <c r="B2" s="55"/>
       <c r="C2" s="55"/>
     </row>
     <row r="3" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A3" s="56" t="s">
-        <v>250</v>
+        <v>246</v>
       </c>
       <c r="B3" s="55" t="s">
+        <v>241</v>
+      </c>
+      <c r="C3" s="55" t="s">
         <v>245</v>
-      </c>
-      <c r="C3" s="55" t="s">
-        <v>249</v>
       </c>
     </row>
     <row r="4" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A4" s="57" t="s">
-        <v>243</v>
+        <v>239</v>
       </c>
       <c r="B4" s="55" t="s">
-        <v>246</v>
+        <v>242</v>
       </c>
       <c r="C4" s="55" t="s">
-        <v>248</v>
+        <v>244</v>
       </c>
     </row>
     <row r="5" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A5" s="65" t="s">
-        <v>252</v>
+        <v>248</v>
       </c>
       <c r="B5" s="55" t="s">
-        <v>251</v>
+        <v>247</v>
       </c>
     </row>
     <row r="6" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A6" s="66" t="s">
-        <v>253</v>
+        <v>249</v>
       </c>
       <c r="B6" s="55" t="s">
-        <v>254</v>
+        <v>250</v>
       </c>
       <c r="C6" t="s">
-        <v>255</v>
+        <v>251</v>
       </c>
     </row>
   </sheetData>
@@ -32606,7 +32663,7 @@
   <sheetData>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="B2" t="e" vm="1">
         <v>#VALUE!</v>

--- a/data.xlsx
+++ b/data.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/07f7fad7cdc18923/Documents/GitLab project/project for image/convert pic/p2/convert-pic-project/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="5993" documentId="13_ncr:1_{08141CDB-C0EE-44BD-80D3-B351C4E8C509}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{490FFDD0-9584-4764-BD89-22625F1B36C7}"/>
+  <xr:revisionPtr revIDLastSave="6038" documentId="13_ncr:1_{08141CDB-C0EE-44BD-80D3-B351C4E8C509}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{4C6701EB-DE16-402A-875E-46AB9D749DDE}"/>
   <bookViews>
-    <workbookView xWindow="1080" yWindow="360" windowWidth="27420" windowHeight="15240" tabRatio="574" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="574" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Data" sheetId="1" r:id="rId1"/>
@@ -133,7 +133,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="703" uniqueCount="260">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="756" uniqueCount="289">
   <si>
     <t>F1</t>
   </si>
@@ -2258,6 +2258,93 @@
   <si>
     <t>Thickness</t>
   </si>
+  <si>
+    <t>ID 2</t>
+  </si>
+  <si>
+    <t>All Type 2 pc step beam - 2.5 x 5 with 14 &amp; 16 Ga</t>
+  </si>
+  <si>
+    <t>ID 3</t>
+  </si>
+  <si>
+    <t>All Type box beam 1.56 x 2.0</t>
+  </si>
+  <si>
+    <t>Box Beam</t>
+  </si>
+  <si>
+    <t>ID 4</t>
+  </si>
+  <si>
+    <t>All Type box beam 1.56 x 2.5</t>
+  </si>
+  <si>
+    <t>ID 19</t>
+  </si>
+  <si>
+    <t>All Type brace 1.5x1.38x.06</t>
+  </si>
+  <si>
+    <t>Brace</t>
+  </si>
+  <si>
+    <t>B</t>
+  </si>
+  <si>
+    <t>ID 20</t>
+  </si>
+  <si>
+    <t>All Type brace 1.5x1.5 x .072</t>
+  </si>
+  <si>
+    <t>HSS</t>
+  </si>
+  <si>
+    <t>ID 44</t>
+  </si>
+  <si>
+    <t>All Type post 3.25x1.94 x0.090</t>
+  </si>
+  <si>
+    <t>Single</t>
+  </si>
+  <si>
+    <t>Welded</t>
+  </si>
+  <si>
+    <t>ID 45</t>
+  </si>
+  <si>
+    <t>All Type post 3.25x1.94x0.101</t>
+  </si>
+  <si>
+    <t>File Address</t>
+  </si>
+  <si>
+    <t>C:\Users\malih\OneDrive\Documents\GitLab project\project for image\convert pic\p2\convert-pic-project\templates\All Type 2 pc step beam - 2.4375 x 4 with 14 &amp; 16 Ga.sct</t>
+  </si>
+  <si>
+    <t>C:\Users\malih\OneDrive\Documents\GitLab project\project for image\convert pic\p2\convert-pic-project\templates\All Type 2 pc step beam - 2.5 x 5 with 14 &amp; 16 Ga.sct</t>
+  </si>
+  <si>
+    <t>C:\Users\malih\OneDrive\Documents\GitLab project\project for image\convert pic\p2\convert-pic-project\templates\All Type box beam 1.56 x 2.0.sct</t>
+  </si>
+  <si>
+    <t>C:\Users\malih\OneDrive\Documents\GitLab project\project for image\convert pic\p2\convert-pic-project\templates\All Type box beam 1.56 x 2.5.sct</t>
+  </si>
+  <si>
+    <t>C:\Users\malih\OneDrive\Documents\GitLab project\project for image\convert pic\p2\convert-pic-project\templates\All Type brace 1.5x1.38x.06.sct</t>
+  </si>
+  <si>
+    <t>C:\Users\malih\OneDrive\Documents\GitLab project\project for image\convert pic\p2\convert-pic-project\templates\All Type brace 1.5x1.5 x .072.sct</t>
+  </si>
+  <si>
+    <t>C:\Users\malih\OneDrive\Documents\GitLab project\project for image\convert pic\p2\convert-pic-project\templates\All Type post 3.25x1.94 x0.090.sct</t>
+  </si>
+  <si>
+    <t>C:\Users\malih\OneDrive\Documents\GitLab project\project for image\convert pic\p2\convert-pic-project\templates\All Type post 3.25x1.94x0.101.sct</t>
+  </si>
 </sst>
 </file>
 
@@ -17597,13 +17684,13 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:BZ605"/>
+  <dimension ref="A1:CB605"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <pane xSplit="5" ySplit="3" topLeftCell="R330" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="5" ySplit="3" topLeftCell="BU4" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="F1" sqref="F1"/>
       <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
-      <selection pane="bottomRight" activeCell="X2" sqref="X2"/>
+      <selection pane="bottomRight" activeCell="CB9" sqref="CB9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -17626,9 +17713,11 @@
     <col min="72" max="72" width="14.5703125" style="1" customWidth="1"/>
     <col min="73" max="73" width="18.42578125" style="1" customWidth="1"/>
     <col min="74" max="74" width="17.42578125" style="1" customWidth="1"/>
+    <col min="76" max="76" width="6.5703125" customWidth="1"/>
+    <col min="80" max="80" width="16.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:78" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:80" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -17816,7 +17905,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="2" spans="1:78" ht="18" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:80" ht="18" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>253</v>
       </c>
@@ -18021,8 +18110,11 @@
       <c r="BW2" t="s">
         <v>252</v>
       </c>
-    </row>
-    <row r="3" spans="1:78" x14ac:dyDescent="0.25">
+      <c r="CB2" s="1" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="3" spans="1:80" x14ac:dyDescent="0.25">
       <c r="G3" t="s">
         <v>99</v>
       </c>
@@ -18171,7 +18263,7 @@
         <v>235</v>
       </c>
     </row>
-    <row r="4" spans="1:78" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:80" x14ac:dyDescent="0.25">
       <c r="BM4" s="10"/>
       <c r="BN4" s="10"/>
       <c r="BO4" s="10"/>
@@ -18179,7 +18271,7 @@
       <c r="BQ4" s="10"/>
       <c r="BR4" s="10"/>
     </row>
-    <row r="6" spans="1:78" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:80" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>257</v>
       </c>
@@ -18357,187 +18449,1305 @@
       <c r="BW6" s="78" t="s">
         <v>252</v>
       </c>
-      <c r="BY6">
-        <f>(-Table_Cold_Formed_Database[[#This Row],[F24]]+BO6/2)</f>
-        <v>5.4850000000000065E-2</v>
-      </c>
-      <c r="BZ6">
-        <f>-Table_Cold_Formed_Database[[#This Row],[F22]]</f>
-        <v>-2.0531000000000001</v>
-      </c>
-    </row>
-    <row r="7" spans="1:78" x14ac:dyDescent="0.25">
-      <c r="BM7" s="8"/>
-      <c r="BN7" s="8"/>
-      <c r="BO7" s="8"/>
-      <c r="BP7" s="8"/>
-      <c r="BQ7" s="8"/>
-      <c r="BR7" s="8"/>
-      <c r="BW7" s="78"/>
-    </row>
-    <row r="8" spans="1:78" x14ac:dyDescent="0.25">
-      <c r="I8" s="58"/>
+      <c r="CB6" s="1" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="7" spans="1:80" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>260</v>
+      </c>
+      <c r="B7" t="s">
+        <v>261</v>
+      </c>
+      <c r="C7" t="s">
+        <v>110</v>
+      </c>
+      <c r="D7" t="s">
+        <v>229</v>
+      </c>
+      <c r="E7" t="s">
+        <v>230</v>
+      </c>
+      <c r="H7">
+        <v>50</v>
+      </c>
+      <c r="I7" s="1">
+        <v>3.8187E-3</v>
+      </c>
+      <c r="J7" s="1">
+        <v>1.1232</v>
+      </c>
+      <c r="K7" s="1">
+        <v>16.998999999999999</v>
+      </c>
+      <c r="L7" s="1">
+        <v>1.1115999999999999</v>
+      </c>
+      <c r="M7" s="1">
+        <v>1.6747999999999999E-3</v>
+      </c>
+      <c r="N7" s="1">
+        <v>3.6545999999999998</v>
+      </c>
+      <c r="O7" s="1">
+        <v>1.5599000000000001</v>
+      </c>
+      <c r="P7" s="1">
+        <v>1.4137</v>
+      </c>
+      <c r="Q7" s="1">
+        <v>0.93989999999999996</v>
+      </c>
+      <c r="R7" s="1">
+        <v>0.79910000000000003</v>
+      </c>
+      <c r="S7" s="1">
+        <v>0.752</v>
+      </c>
+      <c r="T7" s="1">
+        <v>1.8038000000000001</v>
+      </c>
+      <c r="U7" s="1">
+        <v>2.3428</v>
+      </c>
+      <c r="V7" s="1">
+        <v>2.5851999999999999</v>
+      </c>
+      <c r="W7" s="1">
+        <v>0.91479999999999995</v>
+      </c>
+      <c r="X7" s="1">
+        <v>1.1762999999999999</v>
+      </c>
+      <c r="Y7" s="1">
+        <v>1.2499</v>
+      </c>
+      <c r="Z7" s="1">
+        <v>1.8157000000000001</v>
+      </c>
+      <c r="AA7" s="1">
+        <v>0.8911</v>
+      </c>
+      <c r="AB7" s="1">
+        <v>2.0226000000000002</v>
+      </c>
+      <c r="AC7" s="1">
+        <v>2.0565000000000002</v>
+      </c>
+      <c r="AD7" s="1">
+        <v>3.7027000000000001</v>
+      </c>
+      <c r="AE7" s="1">
+        <v>0.89180000000000004</v>
+      </c>
+      <c r="AF7" s="1">
+        <v>4.5945</v>
+      </c>
+      <c r="AG7" s="1">
+        <v>4.7497999999999996</v>
+      </c>
+      <c r="AH7" s="1">
+        <v>-0.36449999999999999</v>
+      </c>
+      <c r="AI7" s="1">
+        <v>7.516</v>
+      </c>
+      <c r="AO7" s="1">
+        <v>1.1231</v>
+      </c>
+      <c r="AP7" s="1">
+        <v>-0.36430000000000001</v>
+      </c>
+      <c r="AQ7" s="1">
+        <v>4.5941000000000001</v>
+      </c>
+      <c r="AR7" s="1">
+        <v>-0.10050000000000001</v>
+      </c>
+      <c r="AS7" s="1">
+        <v>0.35799999999999998</v>
+      </c>
+      <c r="AT7" s="1">
+        <v>-1.8100000000000002E-2</v>
+      </c>
+      <c r="AU7" s="1">
+        <v>-0.5151</v>
+      </c>
+      <c r="AV7" s="1">
+        <v>3.6543000000000001</v>
+      </c>
+      <c r="AW7" s="1">
+        <v>1.5597000000000001</v>
+      </c>
+      <c r="AX7" s="1">
+        <v>1.4136</v>
+      </c>
+      <c r="AY7" s="1">
+        <v>0.93979999999999997</v>
+      </c>
+      <c r="AZ7" s="1">
+        <v>0.79900000000000004</v>
+      </c>
+      <c r="BA7" s="1">
+        <v>0.752</v>
+      </c>
+      <c r="BB7" s="1">
+        <v>1.8038000000000001</v>
+      </c>
+      <c r="BC7" s="1">
+        <v>2.3429000000000002</v>
+      </c>
+      <c r="BD7" s="1">
+        <v>2.5851000000000002</v>
+      </c>
+      <c r="BE7" s="1">
+        <v>0.91479999999999995</v>
+      </c>
+      <c r="BF7" s="1">
+        <v>1.1762999999999999</v>
+      </c>
+      <c r="BG7" s="1">
+        <v>1.2498</v>
+      </c>
+      <c r="BM7" s="8">
+        <v>1.5625</v>
+      </c>
+      <c r="BN7" s="8">
+        <v>4.9279999999999999</v>
+      </c>
+      <c r="BO7" s="8">
+        <v>2.4260999999999999</v>
+      </c>
+      <c r="BP7" s="8">
+        <v>3.4375</v>
+      </c>
+      <c r="BQ7" s="8">
+        <v>6.6074474969115837E-2</v>
+      </c>
+      <c r="BR7" s="8">
+        <v>6.6074474969115837E-2</v>
+      </c>
+      <c r="BW7" s="78" t="s">
+        <v>252</v>
+      </c>
+      <c r="CB7" s="1" t="s">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="8" spans="1:80" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>262</v>
+      </c>
+      <c r="B8" t="s">
+        <v>263</v>
+      </c>
+      <c r="C8" t="s">
+        <v>264</v>
+      </c>
+      <c r="D8" t="s">
+        <v>61</v>
+      </c>
+      <c r="E8" t="s">
+        <v>230</v>
+      </c>
+      <c r="H8">
+        <v>50</v>
+      </c>
+      <c r="I8" s="58">
+        <v>2.1848000000000002E-3</v>
+      </c>
+      <c r="J8" s="1">
+        <v>0.64258000000000004</v>
+      </c>
+      <c r="K8" s="1">
+        <v>10.71</v>
+      </c>
+      <c r="L8" s="1">
+        <v>0.19655</v>
+      </c>
+      <c r="M8" s="1">
+        <v>7.7110000000000004E-4</v>
+      </c>
+      <c r="N8" s="1">
+        <v>0.41109000000000001</v>
+      </c>
+      <c r="O8" s="1">
+        <v>0.40534999999999999</v>
+      </c>
+      <c r="P8" s="1">
+        <v>0.40534999999999999</v>
+      </c>
+      <c r="Q8" s="1">
+        <v>0.22026999999999999</v>
+      </c>
+      <c r="R8" s="1">
+        <v>0.27783999999999998</v>
+      </c>
+      <c r="S8" s="1">
+        <v>0.27783999999999998</v>
+      </c>
+      <c r="T8" s="1">
+        <v>0.79979999999999996</v>
+      </c>
+      <c r="U8" s="1">
+        <v>1.0142</v>
+      </c>
+      <c r="V8" s="1">
+        <v>1.0142</v>
+      </c>
+      <c r="W8" s="1">
+        <v>0.58550000000000002</v>
+      </c>
+      <c r="X8" s="1">
+        <v>0.79279999999999995</v>
+      </c>
+      <c r="Y8" s="1">
+        <v>0.79279999999999995</v>
+      </c>
+      <c r="Z8" s="1">
+        <v>0.79979999999999996</v>
+      </c>
+      <c r="AA8" s="1">
+        <v>0.58550000000000002</v>
+      </c>
+      <c r="AB8" s="1">
+        <v>0.99119999999999997</v>
+      </c>
+      <c r="AC8" s="1">
+        <v>0.99119999999999997</v>
+      </c>
+      <c r="AD8" s="1">
+        <v>0.41109000000000001</v>
+      </c>
+      <c r="AE8" s="1">
+        <v>0.22026000000000001</v>
+      </c>
+      <c r="AF8" s="1">
+        <v>0.63136000000000003</v>
+      </c>
+      <c r="AG8" s="1">
+        <v>0.63136000000000003</v>
+      </c>
+      <c r="AH8" s="1">
+        <v>-8.4000000000000003E-4</v>
+      </c>
+      <c r="AI8" s="1">
+        <v>0.252</v>
+      </c>
       <c r="AK8" s="1"/>
       <c r="AL8" s="1"/>
       <c r="AM8" s="1"/>
       <c r="AN8" s="1"/>
+      <c r="AO8" s="1">
+        <v>0.61987999999999999</v>
+      </c>
+      <c r="AP8" s="1">
+        <v>1.055E-2</v>
+      </c>
+      <c r="AQ8" s="1">
+        <v>0.60838999999999999</v>
+      </c>
+      <c r="AR8" s="1">
+        <v>0</v>
+      </c>
+      <c r="AS8" s="1">
+        <v>0</v>
+      </c>
+      <c r="AT8" s="1">
+        <v>0</v>
+      </c>
+      <c r="AU8" s="1">
+        <v>0</v>
+      </c>
+      <c r="AV8" s="1">
+        <v>0.40042</v>
+      </c>
+      <c r="AW8" s="1">
+        <v>0.38549</v>
+      </c>
+      <c r="AX8" s="1">
+        <v>0.40462999999999999</v>
+      </c>
+      <c r="AY8" s="1">
+        <v>0.20796999999999999</v>
+      </c>
+      <c r="AZ8" s="1">
+        <v>0.25385999999999997</v>
+      </c>
+      <c r="BA8" s="1">
+        <v>0.27135999999999999</v>
+      </c>
+      <c r="BB8" s="1">
+        <v>0.80369999999999997</v>
+      </c>
+      <c r="BC8" s="1">
+        <v>1.0387</v>
+      </c>
+      <c r="BD8" s="1">
+        <v>0.98960000000000004</v>
+      </c>
+      <c r="BE8" s="1">
+        <v>0.57920000000000005</v>
+      </c>
+      <c r="BF8" s="1">
+        <v>0.81920000000000004</v>
+      </c>
+      <c r="BG8" s="1">
+        <v>0.76639999999999997</v>
+      </c>
       <c r="BJ8" s="1"/>
       <c r="BK8" s="1"/>
       <c r="BL8" s="1"/>
-      <c r="BM8" s="10"/>
-      <c r="BN8" s="10"/>
-      <c r="BO8" s="10"/>
-      <c r="BP8" s="10"/>
-      <c r="BQ8" s="10"/>
-      <c r="BR8" s="10"/>
-      <c r="BW8" s="78"/>
-    </row>
-    <row r="9" spans="1:78" x14ac:dyDescent="0.25">
-      <c r="AO9" s="60"/>
-      <c r="AP9" s="60"/>
-      <c r="AQ9" s="60"/>
-      <c r="AR9" s="60"/>
-      <c r="AS9" s="60"/>
-      <c r="AT9" s="60"/>
-      <c r="AU9" s="60"/>
-      <c r="AV9" s="60"/>
-      <c r="AW9" s="60"/>
-      <c r="AX9" s="60"/>
-      <c r="AY9" s="60"/>
-      <c r="AZ9" s="60"/>
-      <c r="BA9" s="60"/>
-      <c r="BB9" s="60"/>
-      <c r="BC9" s="60"/>
-      <c r="BD9" s="60"/>
-      <c r="BE9" s="60"/>
-      <c r="BF9" s="60"/>
-      <c r="BG9" s="60"/>
+      <c r="BM8" s="10">
+        <v>1.5855999999999999</v>
+      </c>
+      <c r="BN8" s="10">
+        <v>2.0283000000000002</v>
+      </c>
+      <c r="BO8" s="10">
+        <v>1.5855999999999999</v>
+      </c>
+      <c r="BP8" s="10">
+        <v>2.0283000000000002</v>
+      </c>
+      <c r="BQ8" s="10">
+        <v>5.999813258636788E-2</v>
+      </c>
+      <c r="BR8" s="10">
+        <v>5.999813258636788E-2</v>
+      </c>
+      <c r="BW8" s="78" t="s">
+        <v>252</v>
+      </c>
+      <c r="CB8" s="1" t="s">
+        <v>283</v>
+      </c>
+    </row>
+    <row r="9" spans="1:80" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>265</v>
+      </c>
+      <c r="B9" t="s">
+        <v>266</v>
+      </c>
+      <c r="C9" t="s">
+        <v>264</v>
+      </c>
+      <c r="D9" t="s">
+        <v>61</v>
+      </c>
+      <c r="E9" t="s">
+        <v>230</v>
+      </c>
+      <c r="H9">
+        <v>50</v>
+      </c>
+      <c r="I9" s="1">
+        <v>2.3888E-3</v>
+      </c>
+      <c r="J9" s="1">
+        <v>0.70257999999999998</v>
+      </c>
+      <c r="K9" s="1">
+        <v>11.71</v>
+      </c>
+      <c r="L9" s="1">
+        <v>0.29791000000000001</v>
+      </c>
+      <c r="M9" s="1">
+        <v>8.4309999999999995E-4</v>
+      </c>
+      <c r="N9" s="1">
+        <v>0.69296999999999997</v>
+      </c>
+      <c r="O9" s="1">
+        <v>0.55057</v>
+      </c>
+      <c r="P9" s="1">
+        <v>0.55057</v>
+      </c>
+      <c r="Q9" s="1">
+        <v>0.25934000000000001</v>
+      </c>
+      <c r="R9" s="1">
+        <v>0.32163999999999998</v>
+      </c>
+      <c r="S9" s="1">
+        <v>0.32163999999999998</v>
+      </c>
+      <c r="T9" s="1">
+        <v>0.99309999999999998</v>
+      </c>
+      <c r="U9" s="1">
+        <v>1.2585999999999999</v>
+      </c>
+      <c r="V9" s="1">
+        <v>1.2585999999999999</v>
+      </c>
+      <c r="W9" s="1">
+        <v>0.60760000000000003</v>
+      </c>
+      <c r="X9" s="1">
+        <v>0.80630000000000002</v>
+      </c>
+      <c r="Y9" s="1">
+        <v>0.80630000000000002</v>
+      </c>
+      <c r="Z9" s="1">
+        <v>0.99309999999999998</v>
+      </c>
+      <c r="AA9" s="1">
+        <v>0.60760000000000003</v>
+      </c>
+      <c r="AB9" s="1">
+        <v>1.1641999999999999</v>
+      </c>
+      <c r="AC9" s="1">
+        <v>1.1641999999999999</v>
+      </c>
+      <c r="AD9" s="1">
+        <v>0.69296999999999997</v>
+      </c>
+      <c r="AE9" s="1">
+        <v>0.25934000000000001</v>
+      </c>
+      <c r="AF9" s="1">
+        <v>0.95230999999999999</v>
+      </c>
+      <c r="AG9" s="1">
+        <v>0.95230999999999999</v>
+      </c>
+      <c r="AH9" s="1">
+        <v>-5.9999999999999995E-4</v>
+      </c>
+      <c r="AI9" s="1">
+        <v>0.08</v>
+      </c>
+      <c r="AO9" s="60">
+        <v>0.70252000000000003</v>
+      </c>
+      <c r="AP9" s="60">
+        <v>-5.9000000000000003E-4</v>
+      </c>
+      <c r="AQ9" s="60">
+        <v>0.95226999999999995</v>
+      </c>
+      <c r="AR9" s="60">
+        <v>0</v>
+      </c>
+      <c r="AS9" s="60">
+        <v>0</v>
+      </c>
+      <c r="AT9" s="60">
+        <v>0</v>
+      </c>
+      <c r="AU9" s="60">
+        <v>0</v>
+      </c>
+      <c r="AV9" s="60">
+        <v>0.69296000000000002</v>
+      </c>
+      <c r="AW9" s="60">
+        <v>0.55054999999999998</v>
+      </c>
+      <c r="AX9" s="60">
+        <v>0.55057</v>
+      </c>
+      <c r="AY9" s="60">
+        <v>0.25930999999999998</v>
+      </c>
+      <c r="AZ9" s="60">
+        <v>0.32157000000000002</v>
+      </c>
+      <c r="BA9" s="60">
+        <v>0.32162000000000002</v>
+      </c>
+      <c r="BB9" s="60">
+        <v>0.99319999999999997</v>
+      </c>
+      <c r="BC9" s="60">
+        <v>1.2586999999999999</v>
+      </c>
+      <c r="BD9" s="60">
+        <v>1.2585999999999999</v>
+      </c>
+      <c r="BE9" s="60">
+        <v>0.60750000000000004</v>
+      </c>
+      <c r="BF9" s="60">
+        <v>0.80640000000000001</v>
+      </c>
+      <c r="BG9" s="60">
+        <v>0.80630000000000002</v>
+      </c>
       <c r="BH9" s="61"/>
-      <c r="BM9" s="8"/>
-      <c r="BN9" s="8"/>
-      <c r="BO9" s="8"/>
-      <c r="BP9" s="8"/>
-      <c r="BQ9" s="64"/>
-      <c r="BR9" s="64"/>
-      <c r="BW9" s="78"/>
-    </row>
-    <row r="10" spans="1:78" x14ac:dyDescent="0.25">
-      <c r="AO10" s="60"/>
-      <c r="AP10" s="60"/>
-      <c r="AQ10" s="60"/>
-      <c r="AR10" s="60"/>
-      <c r="AS10" s="60"/>
-      <c r="AT10" s="60"/>
-      <c r="AU10" s="60"/>
-      <c r="AV10" s="60"/>
-      <c r="AW10" s="60"/>
-      <c r="AX10" s="60"/>
-      <c r="AY10" s="60"/>
-      <c r="AZ10" s="60"/>
-      <c r="BA10" s="60"/>
-      <c r="BB10" s="60"/>
-      <c r="BC10" s="60"/>
-      <c r="BD10" s="60"/>
-      <c r="BE10" s="60"/>
-      <c r="BF10" s="60"/>
-      <c r="BG10" s="60"/>
-      <c r="BH10" s="61"/>
-      <c r="BM10" s="10"/>
-      <c r="BN10" s="10"/>
-      <c r="BO10" s="10"/>
-      <c r="BP10" s="10"/>
-      <c r="BQ10" s="10"/>
-      <c r="BR10" s="10"/>
-      <c r="BW10" s="78"/>
-    </row>
-    <row r="11" spans="1:78" x14ac:dyDescent="0.25">
-      <c r="AO11" s="60"/>
-      <c r="AP11" s="60"/>
-      <c r="AQ11" s="60"/>
-      <c r="AR11" s="60"/>
-      <c r="AS11" s="60"/>
-      <c r="AT11" s="60"/>
-      <c r="AU11" s="60"/>
-      <c r="AV11" s="60"/>
-      <c r="AW11" s="60"/>
-      <c r="AX11" s="60"/>
-      <c r="AY11" s="60"/>
-      <c r="AZ11" s="60"/>
-      <c r="BA11" s="60"/>
-      <c r="BB11" s="60"/>
-      <c r="BC11" s="60"/>
-      <c r="BD11" s="60"/>
-      <c r="BE11" s="60"/>
-      <c r="BF11" s="60"/>
-      <c r="BG11" s="60"/>
-      <c r="BH11" s="61"/>
-      <c r="BM11" s="8"/>
-      <c r="BN11" s="8"/>
-      <c r="BO11" s="8"/>
-      <c r="BP11" s="8"/>
-      <c r="BQ11" s="8"/>
-      <c r="BR11" s="8"/>
-      <c r="BW11" s="78"/>
-    </row>
-    <row r="12" spans="1:78" x14ac:dyDescent="0.25">
-      <c r="AO12" s="60"/>
-      <c r="AP12" s="60"/>
-      <c r="AQ12" s="60"/>
-      <c r="AR12" s="60"/>
-      <c r="AS12" s="60"/>
-      <c r="AT12" s="60"/>
-      <c r="AU12" s="60"/>
-      <c r="AV12" s="60"/>
-      <c r="AW12" s="60"/>
-      <c r="AX12" s="60"/>
-      <c r="AY12" s="60"/>
-      <c r="AZ12" s="60"/>
-      <c r="BA12" s="60"/>
-      <c r="BB12" s="60"/>
-      <c r="BC12" s="60"/>
-      <c r="BD12" s="60"/>
-      <c r="BE12" s="60"/>
-      <c r="BF12" s="60"/>
-      <c r="BG12" s="60"/>
-      <c r="BH12" s="61"/>
-      <c r="BM12" s="10"/>
-      <c r="BN12" s="10"/>
-      <c r="BO12" s="10"/>
-      <c r="BP12" s="10"/>
-      <c r="BQ12" s="10"/>
-      <c r="BR12" s="10"/>
-      <c r="BW12" s="78"/>
-    </row>
-    <row r="13" spans="1:78" x14ac:dyDescent="0.25">
-      <c r="AO13" s="60"/>
-      <c r="AP13" s="60"/>
-      <c r="AQ13" s="60"/>
-      <c r="AR13" s="60"/>
-      <c r="AS13" s="60"/>
-      <c r="AT13" s="60"/>
-      <c r="AU13" s="60"/>
-      <c r="AV13" s="60"/>
-      <c r="AW13" s="60"/>
-      <c r="AX13" s="60"/>
-      <c r="AY13" s="60"/>
-      <c r="AZ13" s="60"/>
-      <c r="BA13" s="60"/>
-      <c r="BB13" s="60"/>
-      <c r="BC13" s="60"/>
-      <c r="BD13" s="60"/>
-      <c r="BE13" s="60"/>
-      <c r="BF13" s="60"/>
-      <c r="BG13" s="60"/>
-      <c r="BH13" s="61"/>
-      <c r="BM13" s="8"/>
-      <c r="BN13" s="8"/>
-      <c r="BO13" s="8"/>
-      <c r="BP13" s="8"/>
-      <c r="BQ13" s="8"/>
-      <c r="BR13" s="8"/>
-      <c r="BW13" s="78"/>
-    </row>
-    <row r="14" spans="1:78" x14ac:dyDescent="0.25">
+      <c r="BM9" s="8">
+        <v>1.6126</v>
+      </c>
+      <c r="BN9" s="8">
+        <v>2.5173000000000001</v>
+      </c>
+      <c r="BO9" s="8">
+        <v>1.6126</v>
+      </c>
+      <c r="BP9" s="8">
+        <v>2.5173000000000001</v>
+      </c>
+      <c r="BQ9" s="64">
+        <v>5.9998292058070023E-2</v>
+      </c>
+      <c r="BR9" s="64">
+        <v>5.9998292058070023E-2</v>
+      </c>
+      <c r="BW9" s="78" t="s">
+        <v>252</v>
+      </c>
+      <c r="CB9" s="1" t="s">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="10" spans="1:80" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>267</v>
+      </c>
+      <c r="B10" t="s">
+        <v>268</v>
+      </c>
+      <c r="C10" t="s">
+        <v>269</v>
+      </c>
+      <c r="D10" t="s">
+        <v>270</v>
+      </c>
+      <c r="E10" t="s">
+        <v>230</v>
+      </c>
+      <c r="I10" s="1">
+        <v>9.8947000000000011E-4</v>
+      </c>
+      <c r="J10" s="1">
+        <v>0.29102</v>
+      </c>
+      <c r="K10" s="1">
+        <v>4.8502999999999998</v>
+      </c>
+      <c r="L10" s="1">
+        <v>6.7202999999999999E-2</v>
+      </c>
+      <c r="M10" s="1">
+        <v>3.4922000000000002E-4</v>
+      </c>
+      <c r="N10" s="1">
+        <v>7.8939999999999996E-2</v>
+      </c>
+      <c r="O10" s="1">
+        <v>0.12737999999999999</v>
+      </c>
+      <c r="P10" s="1">
+        <v>0.10452</v>
+      </c>
+      <c r="Q10" s="1">
+        <v>0.10600999999999999</v>
+      </c>
+      <c r="R10" s="1">
+        <v>0.14135</v>
+      </c>
+      <c r="S10" s="1">
+        <v>0.14135</v>
+      </c>
+      <c r="T10" s="1">
+        <v>0.52080000000000004</v>
+      </c>
+      <c r="U10" s="1">
+        <v>0.61970000000000003</v>
+      </c>
+      <c r="V10" s="1">
+        <v>0.75529999999999997</v>
+      </c>
+      <c r="W10" s="1">
+        <v>0.60360000000000003</v>
+      </c>
+      <c r="X10" s="1">
+        <v>0.75</v>
+      </c>
+      <c r="Y10" s="1">
+        <v>0.75</v>
+      </c>
+      <c r="Z10" s="1">
+        <v>0.60360000000000003</v>
+      </c>
+      <c r="AA10" s="1">
+        <v>0.52080000000000004</v>
+      </c>
+      <c r="AB10" s="1">
+        <v>0.79720000000000002</v>
+      </c>
+      <c r="AC10" s="1">
+        <v>1.5874999999999999</v>
+      </c>
+      <c r="AD10" s="1">
+        <v>0.10600999999999999</v>
+      </c>
+      <c r="AE10" s="1">
+        <v>7.8939999999999996E-2</v>
+      </c>
+      <c r="AF10" s="1">
+        <v>0.18495</v>
+      </c>
+      <c r="AG10" s="1">
+        <v>0.73343999999999998</v>
+      </c>
+      <c r="AH10" s="1">
+        <v>0</v>
+      </c>
+      <c r="AI10" s="1">
+        <v>90</v>
+      </c>
+      <c r="AO10" s="1">
+        <v>0.29096</v>
+      </c>
+      <c r="AP10" s="1">
+        <v>0</v>
+      </c>
+      <c r="AQ10" s="1">
+        <v>0.18492</v>
+      </c>
+      <c r="AR10" s="1">
+        <v>0</v>
+      </c>
+      <c r="AS10" s="1">
+        <v>1.3728</v>
+      </c>
+      <c r="AT10" s="1">
+        <v>0</v>
+      </c>
+      <c r="AU10" s="1">
+        <v>-1.4639</v>
+      </c>
+      <c r="AV10" s="1">
+        <v>7.8939999999999996E-2</v>
+      </c>
+      <c r="AW10" s="1">
+        <v>0.12737999999999999</v>
+      </c>
+      <c r="AX10" s="1">
+        <v>0.10451000000000001</v>
+      </c>
+      <c r="AY10" s="1">
+        <v>0.10598</v>
+      </c>
+      <c r="AZ10" s="1">
+        <v>0.14127999999999999</v>
+      </c>
+      <c r="BA10" s="1">
+        <v>0.14133999999999999</v>
+      </c>
+      <c r="BB10" s="1">
+        <v>0.52090000000000003</v>
+      </c>
+      <c r="BC10" s="1">
+        <v>0.61970000000000003</v>
+      </c>
+      <c r="BD10" s="1">
+        <v>0.75529999999999997</v>
+      </c>
+      <c r="BE10" s="1">
+        <v>0.60350000000000004</v>
+      </c>
+      <c r="BF10" s="1">
+        <v>0.75009999999999999</v>
+      </c>
+      <c r="BG10" s="1">
+        <v>0.74990000000000001</v>
+      </c>
+      <c r="BM10" s="10">
+        <v>1.5</v>
+      </c>
+      <c r="BN10" s="10">
+        <v>1.375</v>
+      </c>
+      <c r="BO10" s="10">
+        <v>1.5</v>
+      </c>
+      <c r="BP10" s="10">
+        <v>1.375</v>
+      </c>
+      <c r="BQ10" s="10">
+        <v>6.0000412345628105E-2</v>
+      </c>
+      <c r="BR10" s="10">
+        <v>6.0000412345628105E-2</v>
+      </c>
+      <c r="BT10" s="1">
+        <v>1</v>
+      </c>
+      <c r="BW10" s="78" t="s">
+        <v>252</v>
+      </c>
+      <c r="CB10" s="1" t="s">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="11" spans="1:80" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>271</v>
+      </c>
+      <c r="B11" t="s">
+        <v>272</v>
+      </c>
+      <c r="C11" t="s">
+        <v>269</v>
+      </c>
+      <c r="D11" t="s">
+        <v>273</v>
+      </c>
+      <c r="E11" t="s">
+        <v>230</v>
+      </c>
+      <c r="I11" s="1">
+        <v>1.3567E-3</v>
+      </c>
+      <c r="J11" s="1">
+        <v>0.39903</v>
+      </c>
+      <c r="K11" s="1">
+        <v>5.5419999999999998</v>
+      </c>
+      <c r="L11" s="1">
+        <v>2.0000000000000002E-5</v>
+      </c>
+      <c r="M11" s="1">
+        <v>0.21431</v>
+      </c>
+      <c r="N11" s="1">
+        <v>0.13350999999999999</v>
+      </c>
+      <c r="O11" s="1">
+        <v>0.17802000000000001</v>
+      </c>
+      <c r="P11" s="1">
+        <v>0.17802000000000001</v>
+      </c>
+      <c r="Q11" s="1">
+        <v>0.13350999999999999</v>
+      </c>
+      <c r="R11" s="1">
+        <v>0.17802000000000001</v>
+      </c>
+      <c r="S11" s="1">
+        <v>0.17802000000000001</v>
+      </c>
+      <c r="T11" s="1">
+        <v>0.57845000000000002</v>
+      </c>
+      <c r="U11" s="1">
+        <v>0.75</v>
+      </c>
+      <c r="V11" s="1">
+        <v>0.75</v>
+      </c>
+      <c r="W11" s="1">
+        <v>0.57845000000000002</v>
+      </c>
+      <c r="X11" s="1">
+        <v>0.75</v>
+      </c>
+      <c r="Y11" s="1">
+        <v>0.75</v>
+      </c>
+      <c r="Z11" s="1">
+        <v>0.57845000000000002</v>
+      </c>
+      <c r="AA11" s="1">
+        <v>0.57845000000000002</v>
+      </c>
+      <c r="AB11" s="1">
+        <v>0.81805000000000005</v>
+      </c>
+      <c r="AC11" s="1">
+        <v>0.81805000000000005</v>
+      </c>
+      <c r="AD11" s="1">
+        <v>0.13350999999999999</v>
+      </c>
+      <c r="AE11" s="1">
+        <v>0.13350999999999999</v>
+      </c>
+      <c r="AF11" s="1">
+        <v>0.26702999999999999</v>
+      </c>
+      <c r="AG11" s="1">
+        <v>0.26702999999999999</v>
+      </c>
+      <c r="AH11" s="1">
+        <v>0</v>
+      </c>
+      <c r="AI11" s="1">
+        <v>0</v>
+      </c>
+      <c r="AO11" s="1">
+        <v>0.39895000000000003</v>
+      </c>
+      <c r="AP11" s="1">
+        <v>0</v>
+      </c>
+      <c r="AQ11" s="1">
+        <v>0.26699000000000001</v>
+      </c>
+      <c r="AR11" s="1">
+        <v>0</v>
+      </c>
+      <c r="AS11" s="1">
+        <v>0</v>
+      </c>
+      <c r="AT11" s="1">
+        <v>0</v>
+      </c>
+      <c r="AU11" s="1">
+        <v>0</v>
+      </c>
+      <c r="AV11" s="1">
+        <v>0.13350999999999999</v>
+      </c>
+      <c r="AW11" s="1">
+        <v>0.17802000000000001</v>
+      </c>
+      <c r="AX11" s="1">
+        <v>0.17802000000000001</v>
+      </c>
+      <c r="AY11" s="1">
+        <v>0.13347999999999999</v>
+      </c>
+      <c r="AZ11" s="1">
+        <v>0.17793999999999999</v>
+      </c>
+      <c r="BA11" s="1">
+        <v>0.17799999999999999</v>
+      </c>
+      <c r="BB11" s="1">
+        <v>0.57850000000000001</v>
+      </c>
+      <c r="BC11" s="1">
+        <v>0.75</v>
+      </c>
+      <c r="BD11" s="1">
+        <v>0.75</v>
+      </c>
+      <c r="BE11" s="1">
+        <v>0.57842000000000005</v>
+      </c>
+      <c r="BF11" s="1">
+        <v>0.75012999999999996</v>
+      </c>
+      <c r="BG11" s="1">
+        <v>0.74987000000000004</v>
+      </c>
+      <c r="BM11" s="8">
+        <v>1.5</v>
+      </c>
+      <c r="BN11" s="8">
+        <v>1.5</v>
+      </c>
+      <c r="BO11" s="8">
+        <v>1.5</v>
+      </c>
+      <c r="BP11" s="8">
+        <v>1.5</v>
+      </c>
+      <c r="BQ11" s="8">
+        <v>7.200108264164562E-2</v>
+      </c>
+      <c r="BR11" s="8">
+        <v>7.200108264164562E-2</v>
+      </c>
+      <c r="BT11" s="1">
+        <v>2</v>
+      </c>
+      <c r="BW11" s="78" t="s">
+        <v>252</v>
+      </c>
+      <c r="CB11" s="1" t="s">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="12" spans="1:80" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>274</v>
+      </c>
+      <c r="B12" t="s">
+        <v>275</v>
+      </c>
+      <c r="C12" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="D12" t="s">
+        <v>276</v>
+      </c>
+      <c r="E12" t="s">
+        <v>230</v>
+      </c>
+      <c r="F12" t="s">
+        <v>277</v>
+      </c>
+      <c r="H12">
+        <v>50</v>
+      </c>
+      <c r="I12" s="1">
+        <v>2.5438000000000001E-3</v>
+      </c>
+      <c r="J12" s="1">
+        <v>0.74819000000000002</v>
+      </c>
+      <c r="K12" s="1">
+        <v>8.3132000000000001</v>
+      </c>
+      <c r="L12" s="1">
+        <v>1.3863000000000001</v>
+      </c>
+      <c r="M12" s="1">
+        <v>2.0200999999999999E-3</v>
+      </c>
+      <c r="N12" s="1">
+        <v>0.40100000000000002</v>
+      </c>
+      <c r="O12" s="1">
+        <v>0.49486000000000002</v>
+      </c>
+      <c r="P12" s="1">
+        <v>0.35500999999999999</v>
+      </c>
+      <c r="Q12" s="1">
+        <v>1.1999</v>
+      </c>
+      <c r="R12" s="1">
+        <v>0.73836999999999997</v>
+      </c>
+      <c r="S12" s="1">
+        <v>0.73836999999999997</v>
+      </c>
+      <c r="T12" s="1">
+        <v>0.73209999999999997</v>
+      </c>
+      <c r="U12" s="1">
+        <v>0.81040000000000001</v>
+      </c>
+      <c r="V12" s="1">
+        <v>1.1295999999999999</v>
+      </c>
+      <c r="W12" s="1">
+        <v>1.2664</v>
+      </c>
+      <c r="X12" s="1">
+        <v>1.6251</v>
+      </c>
+      <c r="Y12" s="1">
+        <v>1.6251</v>
+      </c>
+      <c r="Z12" s="1">
+        <v>1.2664</v>
+      </c>
+      <c r="AA12" s="1">
+        <v>0.73209999999999997</v>
+      </c>
+      <c r="AB12" s="1">
+        <v>1.4628000000000001</v>
+      </c>
+      <c r="AC12" s="1">
+        <v>2.2637</v>
+      </c>
+      <c r="AD12" s="1">
+        <v>1.1999</v>
+      </c>
+      <c r="AE12" s="1">
+        <v>0.40100000000000002</v>
+      </c>
+      <c r="AF12" s="1">
+        <v>1.6009</v>
+      </c>
+      <c r="AG12" s="1">
+        <v>3.8340000000000001</v>
+      </c>
+      <c r="AH12" s="1">
+        <v>0</v>
+      </c>
+      <c r="AI12" s="1">
+        <v>-90</v>
+      </c>
+      <c r="AO12" s="1">
+        <v>0.63971999999999996</v>
+      </c>
+      <c r="AP12" s="1">
+        <v>0</v>
+      </c>
+      <c r="AQ12" s="1">
+        <v>1.4693000000000001</v>
+      </c>
+      <c r="AR12" s="1">
+        <v>0</v>
+      </c>
+      <c r="AS12" s="1">
+        <v>1.7276</v>
+      </c>
+      <c r="AT12" s="1">
+        <v>0</v>
+      </c>
+      <c r="AU12" s="1">
+        <v>-2.0781000000000001</v>
+      </c>
+      <c r="AV12" s="1">
+        <v>0.33500000000000002</v>
+      </c>
+      <c r="AW12" s="1">
+        <v>0.35958000000000001</v>
+      </c>
+      <c r="AX12" s="1">
+        <v>0.33224999999999999</v>
+      </c>
+      <c r="AY12" s="1">
+        <v>1.1343000000000001</v>
+      </c>
+      <c r="AZ12" s="1">
+        <v>0.69796999999999998</v>
+      </c>
+      <c r="BA12" s="1">
+        <v>0.69796999999999998</v>
+      </c>
+      <c r="BB12" s="1">
+        <v>0.72370000000000001</v>
+      </c>
+      <c r="BC12" s="1">
+        <v>0.93169999999999997</v>
+      </c>
+      <c r="BD12" s="1">
+        <v>1.0083</v>
+      </c>
+      <c r="BE12" s="1">
+        <v>1.3315999999999999</v>
+      </c>
+      <c r="BF12" s="1">
+        <v>1.6251</v>
+      </c>
+      <c r="BG12" s="1">
+        <v>1.6251</v>
+      </c>
+      <c r="BM12" s="10">
+        <v>3.2501000000000002</v>
+      </c>
+      <c r="BN12" s="10">
+        <v>1.94</v>
+      </c>
+      <c r="BO12" s="10">
+        <v>3.2501000000000002</v>
+      </c>
+      <c r="BP12" s="10">
+        <v>1.94</v>
+      </c>
+      <c r="BQ12" s="10">
+        <v>9.0000240581244284E-2</v>
+      </c>
+      <c r="BR12" s="10">
+        <v>9.0000240581244284E-2</v>
+      </c>
+      <c r="BT12" s="1">
+        <v>3</v>
+      </c>
+      <c r="BW12" s="78" t="s">
+        <v>252</v>
+      </c>
+      <c r="CB12" s="1" t="s">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="13" spans="1:80" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>278</v>
+      </c>
+      <c r="B13" t="s">
+        <v>279</v>
+      </c>
+      <c r="C13" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="D13" t="s">
+        <v>276</v>
+      </c>
+      <c r="E13" t="s">
+        <v>230</v>
+      </c>
+      <c r="F13" t="s">
+        <v>277</v>
+      </c>
+      <c r="H13">
+        <v>50</v>
+      </c>
+      <c r="I13" s="1">
+        <v>2.8306999999999998E-3</v>
+      </c>
+      <c r="J13" s="1">
+        <v>0.83255000000000001</v>
+      </c>
+      <c r="K13" s="1">
+        <v>8.2431000000000001</v>
+      </c>
+      <c r="L13" s="1">
+        <v>1.4997</v>
+      </c>
+      <c r="M13" s="1">
+        <v>2.8310000000000002E-3</v>
+      </c>
+      <c r="N13" s="1">
+        <v>0.44069999999999998</v>
+      </c>
+      <c r="O13" s="1">
+        <v>0.54312000000000005</v>
+      </c>
+      <c r="P13" s="1">
+        <v>0.39054</v>
+      </c>
+      <c r="Q13" s="1">
+        <v>1.3136000000000001</v>
+      </c>
+      <c r="R13" s="1">
+        <v>0.81186999999999998</v>
+      </c>
+      <c r="S13" s="1">
+        <v>0.81186999999999998</v>
+      </c>
+      <c r="T13" s="1">
+        <v>0.72760000000000002</v>
+      </c>
+      <c r="U13" s="1">
+        <v>0.8115</v>
+      </c>
+      <c r="V13" s="1">
+        <v>1.1285000000000001</v>
+      </c>
+      <c r="W13" s="1">
+        <v>1.2561</v>
+      </c>
+      <c r="X13" s="1">
+        <v>1.6180000000000001</v>
+      </c>
+      <c r="Y13" s="1">
+        <v>1.6180000000000001</v>
+      </c>
+      <c r="Z13" s="1">
+        <v>1.2561</v>
+      </c>
+      <c r="AA13" s="1">
+        <v>0.72760000000000002</v>
+      </c>
+      <c r="AB13" s="1">
+        <v>1.4516</v>
+      </c>
+      <c r="AC13" s="1">
+        <v>2.2492999999999999</v>
+      </c>
+      <c r="AD13" s="1">
+        <v>1.3136000000000001</v>
+      </c>
+      <c r="AE13" s="1">
+        <v>0.44069999999999998</v>
+      </c>
+      <c r="AF13" s="1">
+        <v>1.7543</v>
+      </c>
+      <c r="AG13" s="1">
+        <v>4.2122999999999999</v>
+      </c>
+      <c r="AH13" s="1">
+        <v>0</v>
+      </c>
+      <c r="AI13" s="1">
+        <v>-90</v>
+      </c>
+      <c r="AO13" s="1">
+        <v>0.71147000000000005</v>
+      </c>
+      <c r="AP13" s="1">
+        <v>0</v>
+      </c>
+      <c r="AQ13" s="1">
+        <v>1.6087</v>
+      </c>
+      <c r="AR13" s="1">
+        <v>0</v>
+      </c>
+      <c r="AS13" s="1">
+        <v>1.7181999999999999</v>
+      </c>
+      <c r="AT13" s="1">
+        <v>0</v>
+      </c>
+      <c r="AU13" s="1">
+        <v>-2.0653999999999999</v>
+      </c>
+      <c r="AV13" s="1">
+        <v>0.36759999999999998</v>
+      </c>
+      <c r="AW13" s="1">
+        <v>0.39412000000000003</v>
+      </c>
+      <c r="AX13" s="1">
+        <v>0.36496000000000001</v>
+      </c>
+      <c r="AY13" s="1">
+        <v>1.2411000000000001</v>
+      </c>
+      <c r="AZ13" s="1">
+        <v>0.76707000000000003</v>
+      </c>
+      <c r="BA13" s="1">
+        <v>0.76707000000000003</v>
+      </c>
+      <c r="BB13" s="1">
+        <v>0.71879999999999999</v>
+      </c>
+      <c r="BC13" s="1">
+        <v>0.93269999999999997</v>
+      </c>
+      <c r="BD13" s="1">
+        <v>1.0073000000000001</v>
+      </c>
+      <c r="BE13" s="1">
+        <v>1.3208</v>
+      </c>
+      <c r="BF13" s="1">
+        <v>1.6180000000000001</v>
+      </c>
+      <c r="BG13" s="1">
+        <v>1.6180000000000001</v>
+      </c>
+      <c r="BM13" s="8">
+        <v>3.2360000000000002</v>
+      </c>
+      <c r="BN13" s="8">
+        <v>1.94</v>
+      </c>
+      <c r="BO13" s="8">
+        <v>3.2360000000000002</v>
+      </c>
+      <c r="BP13" s="8">
+        <v>1.94</v>
+      </c>
+      <c r="BQ13" s="8">
+        <v>0.10099962392789121</v>
+      </c>
+      <c r="BR13" s="8">
+        <v>0.10099962392789121</v>
+      </c>
+      <c r="BT13" s="1">
+        <v>4</v>
+      </c>
+      <c r="BW13" s="78" t="s">
+        <v>252</v>
+      </c>
+      <c r="CB13" s="1" t="s">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="14" spans="1:80" x14ac:dyDescent="0.25">
       <c r="AO14" s="60"/>
       <c r="AP14" s="60"/>
       <c r="AQ14" s="60"/>
@@ -18566,7 +19776,7 @@
       <c r="BR14" s="10"/>
       <c r="BW14" s="78"/>
     </row>
-    <row r="15" spans="1:78" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:80" x14ac:dyDescent="0.25">
       <c r="AO15" s="60"/>
       <c r="AP15" s="60"/>
       <c r="AQ15" s="60"/>
@@ -18595,7 +19805,7 @@
       <c r="BR15" s="8"/>
       <c r="BW15" s="78"/>
     </row>
-    <row r="16" spans="1:78" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:80" x14ac:dyDescent="0.25">
       <c r="Z16" s="58"/>
       <c r="AA16" s="58"/>
       <c r="AB16" s="58"/>
@@ -29335,12 +30545,19 @@
   <phoneticPr fontId="3" type="noConversion"/>
   <hyperlinks>
     <hyperlink ref="BW6" r:id="rId1" xr:uid="{B23605C7-BBE0-4A95-9DB4-8CD499FA5509}"/>
+    <hyperlink ref="BW8" r:id="rId2" xr:uid="{2077117C-18C4-49DF-A11E-853041ACE2E3}"/>
+    <hyperlink ref="BW9" r:id="rId3" xr:uid="{39299D95-390F-4138-8800-85923E0E4A74}"/>
+    <hyperlink ref="BW7" r:id="rId4" xr:uid="{C875D281-6692-4FA3-BA63-0A575DA4F2DD}"/>
+    <hyperlink ref="BW10" r:id="rId5" xr:uid="{200B2354-671C-424E-9AFF-6FEC91637DF1}"/>
+    <hyperlink ref="BW11" r:id="rId6" xr:uid="{AF76DEA6-49B3-42B7-9E32-04AE4EDE6F18}"/>
+    <hyperlink ref="BW12" r:id="rId7" xr:uid="{87EC8386-FA49-4758-999B-D1AE3F656257}"/>
+    <hyperlink ref="BW13" r:id="rId8" xr:uid="{2D48CE57-81E8-43C2-93A4-DFEC60FDDE7E}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId2"/>
-  <legacyDrawing r:id="rId3"/>
+  <pageSetup orientation="portrait" r:id="rId9"/>
+  <legacyDrawing r:id="rId10"/>
   <tableParts count="1">
-    <tablePart r:id="rId4"/>
+    <tablePart r:id="rId11"/>
   </tableParts>
 </worksheet>
 </file>

--- a/data.xlsx
+++ b/data.xlsx
@@ -10,7 +10,7 @@
   </mc:AlternateContent>
   <xr:revisionPtr revIDLastSave="6038" documentId="13_ncr:1_{08141CDB-C0EE-44BD-80D3-B351C4E8C509}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{4C6701EB-DE16-402A-875E-46AB9D749DDE}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="574" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-15" yWindow="1725" windowWidth="27420" windowHeight="15240" tabRatio="574" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Data" sheetId="1" r:id="rId1"/>
@@ -17690,7 +17690,7 @@
       <pane xSplit="5" ySplit="3" topLeftCell="BU4" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="F1" sqref="F1"/>
       <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
-      <selection pane="bottomRight" activeCell="CB9" sqref="CB9"/>
+      <selection pane="bottomRight" activeCell="BW13" sqref="BW13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/data.xlsx
+++ b/data.xlsx
@@ -8,25 +8,26 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/07f7fad7cdc18923/Documents/GitLab project/project for image/convert pic/p2/convert-pic-project/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="6038" documentId="13_ncr:1_{08141CDB-C0EE-44BD-80D3-B351C4E8C509}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{4C6701EB-DE16-402A-875E-46AB9D749DDE}"/>
+  <xr:revisionPtr revIDLastSave="6074" documentId="13_ncr:1_{08141CDB-C0EE-44BD-80D3-B351C4E8C509}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{D6C8BD19-85C2-4B6B-AE6F-E9B44C1C642F}"/>
   <bookViews>
-    <workbookView xWindow="-15" yWindow="1725" windowWidth="27420" windowHeight="15240" tabRatio="574" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="574" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Data" sheetId="1" r:id="rId1"/>
-    <sheet name="CFS data entering" sheetId="3" r:id="rId2"/>
-    <sheet name="CFS data entering-New" sheetId="4" r:id="rId3"/>
-    <sheet name="Not in the data" sheetId="2" r:id="rId4"/>
-    <sheet name="Color_Codes_Explanation" sheetId="7" r:id="rId5"/>
-    <sheet name="type image" sheetId="8" r:id="rId6"/>
+    <sheet name="Chart1" sheetId="9" r:id="rId1"/>
+    <sheet name="Data" sheetId="1" r:id="rId2"/>
+    <sheet name="CFS data entering" sheetId="3" r:id="rId3"/>
+    <sheet name="CFS data entering-New" sheetId="4" r:id="rId4"/>
+    <sheet name="Not in the data" sheetId="2" r:id="rId5"/>
+    <sheet name="Color_Codes_Explanation" sheetId="7" r:id="rId6"/>
+    <sheet name="type image" sheetId="8" r:id="rId7"/>
   </sheets>
   <externalReferences>
-    <externalReference r:id="rId7"/>
     <externalReference r:id="rId8"/>
+    <externalReference r:id="rId9"/>
   </externalReferences>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Data!$BW$1:$BW$605</definedName>
-    <definedName name="Cold_Formed_Database" localSheetId="0" hidden="1">Data!$A$1:$BG$604</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">Data!$BW$1:$BW$605</definedName>
+    <definedName name="Cold_Formed_Database" localSheetId="1" hidden="1">Data!$A$1:$BG$604</definedName>
     <definedName name="Filtered_Manu">[1]Step_Beam_Calculations!$Z:$Z</definedName>
     <definedName name="Filtered_Section_Box">[1]Box_Beam_Calculations!$X:$X</definedName>
     <definedName name="Filtered_sections">[1]Step_Beam_Calculations!$X:$X</definedName>
@@ -35,11 +36,11 @@
     <definedName name="Finalbrace">[2]Calculations!$AZ:$AZ</definedName>
     <definedName name="Finalpost">[2]Calculations!$AY:$AY</definedName>
     <definedName name="Manufacturer">[1]Data!$E:$E</definedName>
-    <definedName name="secname" localSheetId="1">#REF!</definedName>
     <definedName name="secname" localSheetId="2">#REF!</definedName>
+    <definedName name="secname" localSheetId="3">#REF!</definedName>
     <definedName name="secname">#REF!</definedName>
-    <definedName name="section" localSheetId="1">#REF!</definedName>
     <definedName name="section" localSheetId="2">#REF!</definedName>
+    <definedName name="section" localSheetId="3">#REF!</definedName>
     <definedName name="section">#REF!</definedName>
     <definedName name="Sectionname">[2]Data!$B:$B</definedName>
     <definedName name="Sections">[1]Data!$B:$B</definedName>
@@ -111,7 +112,7 @@
 </file>
 
 <file path=xl/metadata.xml><?xml version="1.0" encoding="utf-8"?>
-<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xlrd="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata">
+<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xlrd="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata" xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray">
   <metadataTypes count="1">
     <metadataType name="XLRICHVALUE" minSupportedVersion="120000" copy="1" pasteAll="1" pasteValues="1" merge="1" splitFirst="1" rowColShift="1" clearFormats="1" clearComments="1" assign="1" coerce="1"/>
   </metadataTypes>
@@ -133,7 +134,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="756" uniqueCount="289">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="764" uniqueCount="289">
   <si>
     <t>F1</t>
   </si>
@@ -2638,7 +2639,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="86">
+  <cellXfs count="87">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -2831,6 +2832,9 @@
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="3" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
   </cellXfs>
   <cellStyles count="4">
     <cellStyle name="Hyperlink" xfId="3" builtinId="8"/>
@@ -2997,6 +3001,882 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Data!$BW$13:$BX$13</c:f>
+              <c:strCache>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>🔗 View</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>Data!$BY$6:$BY$12</c:f>
+              <c:strCache>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>C:\Users\malih\OneDrive\Documents\GitLab project\project for image\convert pic\p2\convert-pic-project\templates\All Type 2 pc step beam - 2.4375 x 4 with 14 &amp; 16 Ga.sct</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>C:\Users\malih\OneDrive\Documents\GitLab project\project for image\convert pic\p2\convert-pic-project\templates\All Type 2 pc step beam - 2.5 x 5 with 14 &amp; 16 Ga.sct</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>C:\Users\malih\OneDrive\Documents\GitLab project\project for image\convert pic\p2\convert-pic-project\templates\All Type box beam 1.56 x 2.0.sct</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>C:\Users\malih\OneDrive\Documents\GitLab project\project for image\convert pic\p2\convert-pic-project\templates\All Type box beam 1.56 x 2.5.sct</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>C:\Users\malih\OneDrive\Documents\GitLab project\project for image\convert pic\p2\convert-pic-project\templates\All Type brace 1.5x1.38x.06.sct</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>C:\Users\malih\OneDrive\Documents\GitLab project\project for image\convert pic\p2\convert-pic-project\templates\All Type brace 1.5x1.5 x .072.sct</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>C:\Users\malih\OneDrive\Documents\GitLab project\project for image\convert pic\p2\convert-pic-project\templates\All Type post 3.25x1.94 x0.090.sct</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Data!$BY$13</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-1DB1-470B-B21F-77BD32FEF91A}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="219"/>
+        <c:overlap val="-27"/>
+        <c:axId val="1044077023"/>
+        <c:axId val="1044076063"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="1044077023"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1044076063"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="1044076063"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1044077023"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/chartsheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
+<chartsheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" xr:uid="{3F4416CB-F428-400B-9B66-310D649964DE}">
+  <sheetPr codeName="Chart1"/>
+  <sheetViews>
+    <sheetView zoomScale="109" workbookViewId="0" zoomToFit="1"/>
+  </sheetViews>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</chartsheet>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:absoluteAnchor>
+    <xdr:pos x="0" y="0"/>
+    <xdr:ext cx="8677362" cy="6300482"/>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{034E4151-814E-801B-7975-0D16318DE400}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks noGrp="1"/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:absoluteAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -17687,10 +18567,10 @@
   <dimension ref="A1:CB605"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <pane xSplit="5" ySplit="3" topLeftCell="BU4" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="5" ySplit="3" topLeftCell="BV4" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="F1" sqref="F1"/>
       <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
-      <selection pane="bottomRight" activeCell="BW13" sqref="BW13"/>
+      <selection pane="bottomRight" activeCell="BX6" sqref="BX6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -18449,6 +19329,9 @@
       <c r="BW6" s="78" t="s">
         <v>252</v>
       </c>
+      <c r="BY6" s="86" t="s">
+        <v>281</v>
+      </c>
       <c r="CB6" s="1" t="s">
         <v>281</v>
       </c>
@@ -18630,6 +19513,9 @@
       </c>
       <c r="BW7" s="78" t="s">
         <v>252</v>
+      </c>
+      <c r="BY7" s="86" t="s">
+        <v>282</v>
       </c>
       <c r="CB7" s="1" t="s">
         <v>282</v>
@@ -18820,6 +19706,9 @@
       <c r="BW8" s="78" t="s">
         <v>252</v>
       </c>
+      <c r="BY8" s="86" t="s">
+        <v>283</v>
+      </c>
       <c r="CB8" s="1" t="s">
         <v>283</v>
       </c>
@@ -19003,6 +19892,9 @@
       <c r="BW9" s="78" t="s">
         <v>252</v>
       </c>
+      <c r="BY9" s="86" t="s">
+        <v>284</v>
+      </c>
       <c r="CB9" s="1" t="s">
         <v>284</v>
       </c>
@@ -19185,6 +20077,9 @@
       <c r="BW10" s="78" t="s">
         <v>252</v>
       </c>
+      <c r="BY10" s="86" t="s">
+        <v>285</v>
+      </c>
       <c r="CB10" s="1" t="s">
         <v>285</v>
       </c>
@@ -19367,6 +20262,9 @@
       <c r="BW11" s="78" t="s">
         <v>252</v>
       </c>
+      <c r="BY11" s="86" t="s">
+        <v>286</v>
+      </c>
       <c r="CB11" s="1" t="s">
         <v>286</v>
       </c>
@@ -19555,6 +20453,9 @@
       <c r="BW12" s="78" t="s">
         <v>252</v>
       </c>
+      <c r="BY12" s="86" t="s">
+        <v>287</v>
+      </c>
       <c r="CB12" s="1" t="s">
         <v>287</v>
       </c>
@@ -19743,31 +20644,14 @@
       <c r="BW13" s="78" t="s">
         <v>252</v>
       </c>
+      <c r="BY13" s="86" t="s">
+        <v>288</v>
+      </c>
       <c r="CB13" s="1" t="s">
         <v>288</v>
       </c>
     </row>
     <row r="14" spans="1:80" x14ac:dyDescent="0.25">
-      <c r="AO14" s="60"/>
-      <c r="AP14" s="60"/>
-      <c r="AQ14" s="60"/>
-      <c r="AR14" s="60"/>
-      <c r="AS14" s="60"/>
-      <c r="AT14" s="60"/>
-      <c r="AU14" s="60"/>
-      <c r="AV14" s="60"/>
-      <c r="AW14" s="60"/>
-      <c r="AX14" s="60"/>
-      <c r="AY14" s="60"/>
-      <c r="AZ14" s="60"/>
-      <c r="BA14" s="60"/>
-      <c r="BB14" s="60"/>
-      <c r="BC14" s="60"/>
-      <c r="BD14" s="60"/>
-      <c r="BE14" s="60"/>
-      <c r="BF14" s="60"/>
-      <c r="BG14" s="60"/>
-      <c r="BH14" s="61"/>
       <c r="BM14" s="10"/>
       <c r="BN14" s="10"/>
       <c r="BO14" s="10"/>
@@ -19775,28 +20659,9 @@
       <c r="BQ14" s="10"/>
       <c r="BR14" s="10"/>
       <c r="BW14" s="78"/>
+      <c r="CB14" s="1"/>
     </row>
     <row r="15" spans="1:80" x14ac:dyDescent="0.25">
-      <c r="AO15" s="60"/>
-      <c r="AP15" s="60"/>
-      <c r="AQ15" s="60"/>
-      <c r="AR15" s="60"/>
-      <c r="AS15" s="60"/>
-      <c r="AT15" s="60"/>
-      <c r="AU15" s="60"/>
-      <c r="AV15" s="60"/>
-      <c r="AW15" s="60"/>
-      <c r="AX15" s="60"/>
-      <c r="AY15" s="60"/>
-      <c r="AZ15" s="60"/>
-      <c r="BA15" s="60"/>
-      <c r="BB15" s="60"/>
-      <c r="BC15" s="60"/>
-      <c r="BD15" s="60"/>
-      <c r="BE15" s="60"/>
-      <c r="BF15" s="60"/>
-      <c r="BG15" s="60"/>
-      <c r="BH15" s="61"/>
       <c r="BM15" s="8"/>
       <c r="BN15" s="8"/>
       <c r="BO15" s="8"/>
@@ -19804,33 +20669,17 @@
       <c r="BQ15" s="8"/>
       <c r="BR15" s="8"/>
       <c r="BW15" s="78"/>
+      <c r="CB15" s="1"/>
     </row>
     <row r="16" spans="1:80" x14ac:dyDescent="0.25">
-      <c r="Z16" s="58"/>
-      <c r="AA16" s="58"/>
-      <c r="AB16" s="58"/>
-      <c r="AC16" s="58"/>
-      <c r="AD16" s="58"/>
-      <c r="AO16" s="60"/>
-      <c r="AP16" s="60"/>
-      <c r="AQ16" s="60"/>
-      <c r="AR16" s="60"/>
-      <c r="AS16" s="60"/>
-      <c r="AT16" s="60"/>
-      <c r="AU16" s="60"/>
-      <c r="AV16" s="60"/>
-      <c r="AW16" s="60"/>
-      <c r="AX16" s="60"/>
-      <c r="AY16" s="60"/>
-      <c r="AZ16" s="60"/>
-      <c r="BA16" s="60"/>
-      <c r="BB16" s="60"/>
-      <c r="BC16" s="60"/>
-      <c r="BD16" s="60"/>
-      <c r="BE16" s="60"/>
-      <c r="BF16" s="60"/>
-      <c r="BG16" s="60"/>
-      <c r="BH16" s="61"/>
+      <c r="I16" s="58"/>
+      <c r="AK16" s="1"/>
+      <c r="AL16" s="1"/>
+      <c r="AM16" s="1"/>
+      <c r="AN16" s="1"/>
+      <c r="BJ16" s="1"/>
+      <c r="BK16" s="1"/>
+      <c r="BL16" s="1"/>
       <c r="BM16" s="10"/>
       <c r="BN16" s="10"/>
       <c r="BO16" s="10"/>
@@ -19838,8 +20687,9 @@
       <c r="BQ16" s="10"/>
       <c r="BR16" s="10"/>
       <c r="BW16" s="78"/>
-    </row>
-    <row r="17" spans="1:75" x14ac:dyDescent="0.25">
+      <c r="CB16" s="1"/>
+    </row>
+    <row r="17" spans="1:80" x14ac:dyDescent="0.25">
       <c r="AO17" s="60"/>
       <c r="AP17" s="60"/>
       <c r="AQ17" s="60"/>
@@ -19864,32 +20714,12 @@
       <c r="BN17" s="8"/>
       <c r="BO17" s="8"/>
       <c r="BP17" s="8"/>
-      <c r="BQ17" s="8"/>
-      <c r="BR17" s="8"/>
+      <c r="BQ17" s="64"/>
+      <c r="BR17" s="64"/>
       <c r="BW17" s="78"/>
-    </row>
-    <row r="18" spans="1:75" x14ac:dyDescent="0.25">
-      <c r="AO18" s="60"/>
-      <c r="AP18" s="60"/>
-      <c r="AQ18" s="60"/>
-      <c r="AR18" s="60"/>
-      <c r="AS18" s="60"/>
-      <c r="AT18" s="60"/>
-      <c r="AU18" s="60"/>
-      <c r="AV18" s="60"/>
-      <c r="AW18" s="60"/>
-      <c r="AX18" s="60"/>
-      <c r="AY18" s="60"/>
-      <c r="AZ18" s="60"/>
-      <c r="BA18" s="60"/>
-      <c r="BB18" s="60"/>
-      <c r="BC18" s="60"/>
-      <c r="BD18" s="60"/>
-      <c r="BE18" s="60"/>
-      <c r="BF18" s="60"/>
-      <c r="BG18" s="60"/>
-      <c r="BH18" s="61"/>
-      <c r="BI18"/>
+      <c r="CB17" s="1"/>
+    </row>
+    <row r="18" spans="1:80" x14ac:dyDescent="0.25">
       <c r="BM18" s="10"/>
       <c r="BN18" s="10"/>
       <c r="BO18" s="10"/>
@@ -19897,28 +20727,9 @@
       <c r="BQ18" s="10"/>
       <c r="BR18" s="10"/>
       <c r="BW18" s="78"/>
-    </row>
-    <row r="19" spans="1:75" x14ac:dyDescent="0.25">
-      <c r="AO19" s="60"/>
-      <c r="AP19" s="60"/>
-      <c r="AQ19" s="60"/>
-      <c r="AR19" s="60"/>
-      <c r="AS19" s="60"/>
-      <c r="AT19" s="60"/>
-      <c r="AU19" s="60"/>
-      <c r="AV19" s="60"/>
-      <c r="AW19" s="60"/>
-      <c r="AX19" s="60"/>
-      <c r="AY19" s="60"/>
-      <c r="AZ19" s="60"/>
-      <c r="BA19" s="60"/>
-      <c r="BB19" s="60"/>
-      <c r="BC19" s="60"/>
-      <c r="BD19" s="60"/>
-      <c r="BE19" s="60"/>
-      <c r="BF19" s="60"/>
-      <c r="BG19" s="60"/>
-      <c r="BH19" s="61"/>
+      <c r="CB18" s="1"/>
+    </row>
+    <row r="19" spans="1:80" x14ac:dyDescent="0.25">
       <c r="BM19" s="8"/>
       <c r="BN19" s="8"/>
       <c r="BO19" s="8"/>
@@ -19926,28 +20737,10 @@
       <c r="BQ19" s="8"/>
       <c r="BR19" s="8"/>
       <c r="BW19" s="78"/>
-    </row>
-    <row r="20" spans="1:75" x14ac:dyDescent="0.25">
-      <c r="AO20" s="60"/>
-      <c r="AP20" s="60"/>
-      <c r="AQ20" s="60"/>
-      <c r="AR20" s="60"/>
-      <c r="AS20" s="60"/>
-      <c r="AT20" s="60"/>
-      <c r="AU20" s="60"/>
-      <c r="AV20" s="60"/>
-      <c r="AW20" s="60"/>
-      <c r="AX20" s="60"/>
-      <c r="AY20" s="60"/>
-      <c r="AZ20" s="60"/>
-      <c r="BA20" s="60"/>
-      <c r="BB20" s="60"/>
-      <c r="BC20" s="60"/>
-      <c r="BD20" s="60"/>
-      <c r="BE20" s="60"/>
-      <c r="BF20" s="60"/>
-      <c r="BG20" s="60"/>
-      <c r="BH20" s="61"/>
+      <c r="CB19" s="1"/>
+    </row>
+    <row r="20" spans="1:80" x14ac:dyDescent="0.25">
+      <c r="C20" s="2"/>
       <c r="BM20" s="10"/>
       <c r="BN20" s="10"/>
       <c r="BO20" s="10"/>
@@ -19955,28 +20748,10 @@
       <c r="BQ20" s="10"/>
       <c r="BR20" s="10"/>
       <c r="BW20" s="78"/>
-    </row>
-    <row r="21" spans="1:75" x14ac:dyDescent="0.25">
-      <c r="AO21" s="60"/>
-      <c r="AP21" s="60"/>
-      <c r="AQ21" s="60"/>
-      <c r="AR21" s="60"/>
-      <c r="AS21" s="60"/>
-      <c r="AT21" s="60"/>
-      <c r="AU21" s="60"/>
-      <c r="AV21" s="60"/>
-      <c r="AW21" s="60"/>
-      <c r="AX21" s="60"/>
-      <c r="AY21" s="60"/>
-      <c r="AZ21" s="60"/>
-      <c r="BA21" s="60"/>
-      <c r="BB21" s="60"/>
-      <c r="BC21" s="60"/>
-      <c r="BD21" s="60"/>
-      <c r="BE21" s="60"/>
-      <c r="BF21" s="60"/>
-      <c r="BG21" s="60"/>
-      <c r="BH21" s="61"/>
+      <c r="CB20" s="1"/>
+    </row>
+    <row r="21" spans="1:80" x14ac:dyDescent="0.25">
+      <c r="C21" s="2"/>
       <c r="BM21" s="8"/>
       <c r="BN21" s="8"/>
       <c r="BO21" s="8"/>
@@ -19984,8 +20759,9 @@
       <c r="BQ21" s="8"/>
       <c r="BR21" s="8"/>
       <c r="BW21" s="78"/>
-    </row>
-    <row r="22" spans="1:75" s="52" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="CB21" s="1"/>
+    </row>
+    <row r="22" spans="1:80" s="52" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B22" s="58"/>
       <c r="D22" s="58"/>
       <c r="I22" s="58"/>
@@ -20054,7 +20830,7 @@
       <c r="BV22" s="58"/>
       <c r="BW22" s="81"/>
     </row>
-    <row r="23" spans="1:75" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:80" x14ac:dyDescent="0.25">
       <c r="A23" s="52"/>
       <c r="B23" s="77"/>
       <c r="C23" s="52"/>
@@ -20125,7 +20901,7 @@
       <c r="BR23" s="9"/>
       <c r="BW23" s="79"/>
     </row>
-    <row r="24" spans="1:75" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:80" x14ac:dyDescent="0.25">
       <c r="BM24" s="10"/>
       <c r="BN24" s="10"/>
       <c r="BO24" s="10"/>
@@ -20134,7 +20910,7 @@
       <c r="BR24" s="10"/>
       <c r="BW24" s="78"/>
     </row>
-    <row r="25" spans="1:75" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:80" x14ac:dyDescent="0.25">
       <c r="BM25" s="8"/>
       <c r="BN25" s="8"/>
       <c r="BO25" s="8"/>
@@ -20143,7 +20919,7 @@
       <c r="BR25" s="8"/>
       <c r="BW25" s="78"/>
     </row>
-    <row r="26" spans="1:75" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:80" x14ac:dyDescent="0.25">
       <c r="B26" s="58"/>
       <c r="D26" s="1"/>
       <c r="I26" s="58"/>
@@ -20160,7 +20936,7 @@
       <c r="BR26" s="10"/>
       <c r="BW26" s="78"/>
     </row>
-    <row r="27" spans="1:75" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:80" x14ac:dyDescent="0.25">
       <c r="B27" s="77"/>
       <c r="D27" s="2"/>
       <c r="I27" s="77"/>
@@ -20225,7 +21001,7 @@
       <c r="BR27" s="9"/>
       <c r="BW27" s="78"/>
     </row>
-    <row r="28" spans="1:75" s="52" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:80" s="52" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B28" s="77"/>
       <c r="D28" s="77"/>
       <c r="I28" s="77"/>
@@ -20294,7 +21070,7 @@
       <c r="BV28" s="58"/>
       <c r="BW28" s="81"/>
     </row>
-    <row r="29" spans="1:75" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:80" x14ac:dyDescent="0.25">
       <c r="B29" s="77"/>
       <c r="D29" s="1"/>
       <c r="I29" s="77"/>
@@ -20361,7 +21137,7 @@
       <c r="BR29" s="82"/>
       <c r="BW29" s="78"/>
     </row>
-    <row r="30" spans="1:75" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:80" x14ac:dyDescent="0.25">
       <c r="B30" s="2"/>
       <c r="D30" s="2"/>
       <c r="I30" s="2"/>
@@ -20426,7 +21202,7 @@
       <c r="BR30" s="9"/>
       <c r="BW30" s="79"/>
     </row>
-    <row r="31" spans="1:75" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:80" x14ac:dyDescent="0.25">
       <c r="B31" s="77"/>
       <c r="D31" s="2"/>
       <c r="I31" s="77"/>
@@ -20491,7 +21267,7 @@
       <c r="BR31" s="7"/>
       <c r="BW31" s="78"/>
     </row>
-    <row r="32" spans="1:75" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:80" x14ac:dyDescent="0.25">
       <c r="B32" s="77"/>
       <c r="D32" s="2"/>
       <c r="I32" s="77"/>
@@ -30552,12 +31328,20 @@
     <hyperlink ref="BW11" r:id="rId6" xr:uid="{AF76DEA6-49B3-42B7-9E32-04AE4EDE6F18}"/>
     <hyperlink ref="BW12" r:id="rId7" xr:uid="{87EC8386-FA49-4758-999B-D1AE3F656257}"/>
     <hyperlink ref="BW13" r:id="rId8" xr:uid="{2D48CE57-81E8-43C2-93A4-DFEC60FDDE7E}"/>
+    <hyperlink ref="BY6" r:id="rId9" xr:uid="{C10720D9-6BB5-4E4B-B441-D54D2C838F3A}"/>
+    <hyperlink ref="BY7" r:id="rId10" xr:uid="{CE57A29F-55BB-4481-A6D8-85325129C2A3}"/>
+    <hyperlink ref="BY8" r:id="rId11" xr:uid="{BA2B3676-E64F-4C62-9ED5-14CDC100DC61}"/>
+    <hyperlink ref="BY9" r:id="rId12" xr:uid="{78ED1CAC-FED3-48E0-A628-176487824C8D}"/>
+    <hyperlink ref="BY10" r:id="rId13" xr:uid="{FA5864AF-A8AD-4D91-9B96-B5F2D9FAEA5E}"/>
+    <hyperlink ref="BY11" r:id="rId14" xr:uid="{37235622-FB61-4CF2-81BD-0932756F0C62}"/>
+    <hyperlink ref="BY12" r:id="rId15" xr:uid="{743D2AF1-8E8A-4499-94E4-D3E054B89D9C}"/>
+    <hyperlink ref="BY13" r:id="rId16" xr:uid="{49F8513D-1ED7-4652-8B5C-5412D9CB4E92}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId9"/>
-  <legacyDrawing r:id="rId10"/>
+  <pageSetup orientation="portrait" r:id="rId17"/>
+  <legacyDrawing r:id="rId18"/>
   <tableParts count="1">
-    <tablePart r:id="rId11"/>
+    <tablePart r:id="rId19"/>
   </tableParts>
 </worksheet>
 </file>

--- a/data.xlsx
+++ b/data.xlsx
@@ -5,12 +5,12 @@
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/07f7fad7cdc18923/Documents/GitLab project/project for image/convert pic/p2/convert-pic-project/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/07f7fad7cdc18923/Documents/GitLab project/initial/convert pic/project 2/convert-pic-project/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="6074" documentId="13_ncr:1_{08141CDB-C0EE-44BD-80D3-B351C4E8C509}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{D6C8BD19-85C2-4B6B-AE6F-E9B44C1C642F}"/>
+  <xr:revisionPtr revIDLastSave="6128" documentId="13_ncr:1_{08141CDB-C0EE-44BD-80D3-B351C4E8C509}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{924DD706-96FE-471B-A4C4-98A3941556E5}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="574" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="75" yWindow="7110" windowWidth="27420" windowHeight="15240" tabRatio="574" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Chart1" sheetId="9" r:id="rId1"/>
@@ -112,7 +112,7 @@
 </file>
 
 <file path=xl/metadata.xml><?xml version="1.0" encoding="utf-8"?>
-<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xlrd="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata" xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray">
+<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xlrd="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata">
   <metadataTypes count="1">
     <metadataType name="XLRICHVALUE" minSupportedVersion="120000" copy="1" pasteAll="1" pasteValues="1" merge="1" splitFirst="1" rowColShift="1" clearFormats="1" clearComments="1" assign="1" coerce="1"/>
   </metadataTypes>
@@ -134,7 +134,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="764" uniqueCount="289">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="756" uniqueCount="289">
   <si>
     <t>F1</t>
   </si>
@@ -2323,28 +2323,28 @@
     <t>File Address</t>
   </si>
   <si>
-    <t>C:\Users\malih\OneDrive\Documents\GitLab project\project for image\convert pic\p2\convert-pic-project\templates\All Type 2 pc step beam - 2.4375 x 4 with 14 &amp; 16 Ga.sct</t>
+    <t>C:\Users\malih\OneDrive\Documents\GitLab project\initial\convert pic\project 2\convert-pic-project\templates\2 pc step beam - 2.4375 x 4 with 14 &amp; 16 Ga.dxf</t>
   </si>
   <si>
-    <t>C:\Users\malih\OneDrive\Documents\GitLab project\project for image\convert pic\p2\convert-pic-project\templates\All Type 2 pc step beam - 2.5 x 5 with 14 &amp; 16 Ga.sct</t>
+    <t>C:\Users\malih\OneDrive\Documents\GitLab project\initial\convert pic\project 2\convert-pic-project\templates\2 pc step beam - 2.5 x 5 with 14 &amp; 16 Ga.dxf</t>
   </si>
   <si>
-    <t>C:\Users\malih\OneDrive\Documents\GitLab project\project for image\convert pic\p2\convert-pic-project\templates\All Type box beam 1.56 x 2.0.sct</t>
+    <t>C:\Users\malih\OneDrive\Documents\GitLab project\initial\convert pic\project 2\convert-pic-project\templates\box beam 1.56 x 2.0.dxf</t>
   </si>
   <si>
-    <t>C:\Users\malih\OneDrive\Documents\GitLab project\project for image\convert pic\p2\convert-pic-project\templates\All Type box beam 1.56 x 2.5.sct</t>
+    <t>C:\Users\malih\OneDrive\Documents\GitLab project\initial\convert pic\project 2\convert-pic-project\templates\box beam 1.56 x 2.5.dxf</t>
   </si>
   <si>
-    <t>C:\Users\malih\OneDrive\Documents\GitLab project\project for image\convert pic\p2\convert-pic-project\templates\All Type brace 1.5x1.38x.06.sct</t>
+    <t>C:\Users\malih\OneDrive\Documents\GitLab project\initial\convert pic\project 2\convert-pic-project\templates\brace 1.5x1.5 x .072.dxf</t>
   </si>
   <si>
-    <t>C:\Users\malih\OneDrive\Documents\GitLab project\project for image\convert pic\p2\convert-pic-project\templates\All Type brace 1.5x1.5 x .072.sct</t>
+    <t>C:\Users\malih\OneDrive\Documents\GitLab project\initial\convert pic\project 2\convert-pic-project\templates\brace 1.5x1.38x.06.dxf</t>
   </si>
   <si>
-    <t>C:\Users\malih\OneDrive\Documents\GitLab project\project for image\convert pic\p2\convert-pic-project\templates\All Type post 3.25x1.94 x0.090.sct</t>
+    <t>C:\Users\malih\OneDrive\Documents\GitLab project\initial\convert pic\project 2\convert-pic-project\templates\post 3.25 x 1.94 x .090.dxf</t>
   </si>
   <si>
-    <t>C:\Users\malih\OneDrive\Documents\GitLab project\project for image\convert pic\p2\convert-pic-project\templates\All Type post 3.25x1.94x0.101.sct</t>
+    <t>C:\Users\malih\OneDrive\Documents\GitLab project\initial\convert pic\project 2\convert-pic-project\templates\post 3.25 x 1.94 x .101.dxf</t>
   </si>
 </sst>
 </file>
@@ -3079,33 +3079,13 @@
           </c:spPr>
           <c:invertIfNegative val="0"/>
           <c:cat>
-            <c:strRef>
+            <c:numRef>
               <c:f>Data!$BY$6:$BY$12</c:f>
-              <c:strCache>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
                 <c:ptCount val="7"/>
-                <c:pt idx="0">
-                  <c:v>C:\Users\malih\OneDrive\Documents\GitLab project\project for image\convert pic\p2\convert-pic-project\templates\All Type 2 pc step beam - 2.4375 x 4 with 14 &amp; 16 Ga.sct</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>C:\Users\malih\OneDrive\Documents\GitLab project\project for image\convert pic\p2\convert-pic-project\templates\All Type 2 pc step beam - 2.5 x 5 with 14 &amp; 16 Ga.sct</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>C:\Users\malih\OneDrive\Documents\GitLab project\project for image\convert pic\p2\convert-pic-project\templates\All Type box beam 1.56 x 2.0.sct</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>C:\Users\malih\OneDrive\Documents\GitLab project\project for image\convert pic\p2\convert-pic-project\templates\All Type box beam 1.56 x 2.5.sct</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>C:\Users\malih\OneDrive\Documents\GitLab project\project for image\convert pic\p2\convert-pic-project\templates\All Type brace 1.5x1.38x.06.sct</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>C:\Users\malih\OneDrive\Documents\GitLab project\project for image\convert pic\p2\convert-pic-project\templates\All Type brace 1.5x1.5 x .072.sct</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>C:\Users\malih\OneDrive\Documents\GitLab project\project for image\convert pic\p2\convert-pic-project\templates\All Type post 3.25x1.94 x0.090.sct</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
+              </c:numCache>
+            </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
@@ -3113,9 +3093,6 @@
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>0</c:v>
-                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
@@ -18567,10 +18544,10 @@
   <dimension ref="A1:CB605"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <pane xSplit="5" ySplit="3" topLeftCell="BV4" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="5" ySplit="3" topLeftCell="BY10" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="F1" sqref="F1"/>
       <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
-      <selection pane="bottomRight" activeCell="BX6" sqref="BX6"/>
+      <selection pane="bottomRight" activeCell="CB13" sqref="CB13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -18594,6 +18571,8 @@
     <col min="73" max="73" width="18.42578125" style="1" customWidth="1"/>
     <col min="74" max="74" width="17.42578125" style="1" customWidth="1"/>
     <col min="76" max="76" width="6.5703125" customWidth="1"/>
+    <col min="78" max="78" width="30.140625" customWidth="1"/>
+    <col min="79" max="79" width="6.5703125" customWidth="1"/>
     <col min="80" max="80" width="16.28515625" customWidth="1"/>
   </cols>
   <sheetData>
@@ -19329,9 +19308,8 @@
       <c r="BW6" s="78" t="s">
         <v>252</v>
       </c>
-      <c r="BY6" s="86" t="s">
-        <v>281</v>
-      </c>
+      <c r="BY6" s="86"/>
+      <c r="BZ6" s="78"/>
       <c r="CB6" s="1" t="s">
         <v>281</v>
       </c>
@@ -19514,9 +19492,7 @@
       <c r="BW7" s="78" t="s">
         <v>252</v>
       </c>
-      <c r="BY7" s="86" t="s">
-        <v>282</v>
-      </c>
+      <c r="BY7" s="86"/>
       <c r="CB7" s="1" t="s">
         <v>282</v>
       </c>
@@ -19706,9 +19682,7 @@
       <c r="BW8" s="78" t="s">
         <v>252</v>
       </c>
-      <c r="BY8" s="86" t="s">
-        <v>283</v>
-      </c>
+      <c r="BY8" s="86"/>
       <c r="CB8" s="1" t="s">
         <v>283</v>
       </c>
@@ -19892,9 +19866,7 @@
       <c r="BW9" s="78" t="s">
         <v>252</v>
       </c>
-      <c r="BY9" s="86" t="s">
-        <v>284</v>
-      </c>
+      <c r="BY9" s="86"/>
       <c r="CB9" s="1" t="s">
         <v>284</v>
       </c>
@@ -20077,11 +20049,9 @@
       <c r="BW10" s="78" t="s">
         <v>252</v>
       </c>
-      <c r="BY10" s="86" t="s">
-        <v>285</v>
-      </c>
+      <c r="BY10" s="86"/>
       <c r="CB10" s="1" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
     </row>
     <row r="11" spans="1:80" x14ac:dyDescent="0.25">
@@ -20262,11 +20232,9 @@
       <c r="BW11" s="78" t="s">
         <v>252</v>
       </c>
-      <c r="BY11" s="86" t="s">
-        <v>286</v>
-      </c>
+      <c r="BY11" s="86"/>
       <c r="CB11" s="1" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
     </row>
     <row r="12" spans="1:80" x14ac:dyDescent="0.25">
@@ -20453,9 +20421,7 @@
       <c r="BW12" s="78" t="s">
         <v>252</v>
       </c>
-      <c r="BY12" s="86" t="s">
-        <v>287</v>
-      </c>
+      <c r="BY12" s="86"/>
       <c r="CB12" s="1" t="s">
         <v>287</v>
       </c>
@@ -20644,9 +20610,7 @@
       <c r="BW13" s="78" t="s">
         <v>252</v>
       </c>
-      <c r="BY13" s="86" t="s">
-        <v>288</v>
-      </c>
+      <c r="BY13" s="86"/>
       <c r="CB13" s="1" t="s">
         <v>288</v>
       </c>
@@ -31328,20 +31292,12 @@
     <hyperlink ref="BW11" r:id="rId6" xr:uid="{AF76DEA6-49B3-42B7-9E32-04AE4EDE6F18}"/>
     <hyperlink ref="BW12" r:id="rId7" xr:uid="{87EC8386-FA49-4758-999B-D1AE3F656257}"/>
     <hyperlink ref="BW13" r:id="rId8" xr:uid="{2D48CE57-81E8-43C2-93A4-DFEC60FDDE7E}"/>
-    <hyperlink ref="BY6" r:id="rId9" xr:uid="{C10720D9-6BB5-4E4B-B441-D54D2C838F3A}"/>
-    <hyperlink ref="BY7" r:id="rId10" xr:uid="{CE57A29F-55BB-4481-A6D8-85325129C2A3}"/>
-    <hyperlink ref="BY8" r:id="rId11" xr:uid="{BA2B3676-E64F-4C62-9ED5-14CDC100DC61}"/>
-    <hyperlink ref="BY9" r:id="rId12" xr:uid="{78ED1CAC-FED3-48E0-A628-176487824C8D}"/>
-    <hyperlink ref="BY10" r:id="rId13" xr:uid="{FA5864AF-A8AD-4D91-9B96-B5F2D9FAEA5E}"/>
-    <hyperlink ref="BY11" r:id="rId14" xr:uid="{37235622-FB61-4CF2-81BD-0932756F0C62}"/>
-    <hyperlink ref="BY12" r:id="rId15" xr:uid="{743D2AF1-8E8A-4499-94E4-D3E054B89D9C}"/>
-    <hyperlink ref="BY13" r:id="rId16" xr:uid="{49F8513D-1ED7-4652-8B5C-5412D9CB4E92}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId17"/>
-  <legacyDrawing r:id="rId18"/>
+  <pageSetup orientation="portrait" r:id="rId9"/>
+  <legacyDrawing r:id="rId10"/>
   <tableParts count="1">
-    <tablePart r:id="rId19"/>
+    <tablePart r:id="rId11"/>
   </tableParts>
 </worksheet>
 </file>

--- a/data.xlsx
+++ b/data.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/07f7fad7cdc18923/Documents/GitLab project/initial/convert pic/project 2/convert-pic-project/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="6128" documentId="13_ncr:1_{08141CDB-C0EE-44BD-80D3-B351C4E8C509}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{924DD706-96FE-471B-A4C4-98A3941556E5}"/>
+  <xr:revisionPtr revIDLastSave="6179" documentId="13_ncr:1_{08141CDB-C0EE-44BD-80D3-B351C4E8C509}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{3E235793-C8BC-496C-B657-4E6E6023EAE5}"/>
   <bookViews>
-    <workbookView xWindow="75" yWindow="7110" windowWidth="27420" windowHeight="15240" tabRatio="574" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="574" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Chart1" sheetId="9" r:id="rId1"/>
@@ -19,7 +19,7 @@
     <sheet name="CFS data entering-New" sheetId="4" r:id="rId4"/>
     <sheet name="Not in the data" sheetId="2" r:id="rId5"/>
     <sheet name="Color_Codes_Explanation" sheetId="7" r:id="rId6"/>
-    <sheet name="type image" sheetId="8" r:id="rId7"/>
+    <sheet name="Calc" sheetId="8" r:id="rId7"/>
   </sheets>
   <externalReferences>
     <externalReference r:id="rId8"/>
@@ -111,30 +111,8 @@
 </connections>
 </file>
 
-<file path=xl/metadata.xml><?xml version="1.0" encoding="utf-8"?>
-<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xlrd="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata">
-  <metadataTypes count="1">
-    <metadataType name="XLRICHVALUE" minSupportedVersion="120000" copy="1" pasteAll="1" pasteValues="1" merge="1" splitFirst="1" rowColShift="1" clearFormats="1" clearComments="1" assign="1" coerce="1"/>
-  </metadataTypes>
-  <futureMetadata name="XLRICHVALUE" count="1">
-    <bk>
-      <extLst>
-        <ext uri="{3e2802c4-a4d2-4d8b-9148-e3be6c30e623}">
-          <xlrd:rvb i="0"/>
-        </ext>
-      </extLst>
-    </bk>
-  </futureMetadata>
-  <valueMetadata count="1">
-    <bk>
-      <rc t="1" v="0"/>
-    </bk>
-  </valueMetadata>
-</metadata>
-</file>
-
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="756" uniqueCount="289">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="757" uniqueCount="290">
   <si>
     <t>F1</t>
   </si>
@@ -2346,6 +2324,9 @@
   <si>
     <t>C:\Users\malih\OneDrive\Documents\GitLab project\initial\convert pic\project 2\convert-pic-project\templates\post 3.25 x 1.94 x .101.dxf</t>
   </si>
+  <si>
+    <t>select shape:</t>
+  </si>
 </sst>
 </file>
 
@@ -3856,6 +3837,137 @@
 </xdr:wsDr>
 </file>
 
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="333" name="PicFrame_133607">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3933FC57-5438-6F2C-1866-E9E90D2E5B45}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="12830175" y="190500"/>
+          <a:ext cx="4267200" cy="3619500"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="FFFFFF"/>
+        </a:solidFill>
+        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+          <a:noFill/>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:effectLst/>
+        <a:extLst>
+          <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+            <a14:hiddenLine xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" w="12700" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="accent1">
+                  <a:shade val="15000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:prstDash val="solid"/>
+              <a:miter lim="800000"/>
+            </a14:hiddenLine>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="15000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="en-CA" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>201377</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>190499</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>408223</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="335" name="Picture 334">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{403E86A7-88F4-0559-5248-B3716EEB79F1}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:link="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="13031552" y="190499"/>
+          <a:ext cx="3864446" cy="3619501"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
 <file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
 <externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
@@ -18141,70 +18253,6 @@
     </queryTableDeletedFields>
   </queryTableRefresh>
 </queryTable>
-</file>
-
-<file path=xl/richData/rdRichValueTypes.xml><?xml version="1.0" encoding="utf-8"?>
-<rvTypesInfo xmlns="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" mc:Ignorable="x">
-  <global>
-    <keyFlags>
-      <key name="_Self">
-        <flag name="ExcludeFromFile" value="1"/>
-        <flag name="ExcludeFromCalcComparison" value="1"/>
-      </key>
-      <key name="_DisplayString">
-        <flag name="ExcludeFromCalcComparison" value="1"/>
-      </key>
-      <key name="_Flags">
-        <flag name="ExcludeFromCalcComparison" value="1"/>
-      </key>
-      <key name="_Format">
-        <flag name="ExcludeFromCalcComparison" value="1"/>
-      </key>
-      <key name="_SubLabel">
-        <flag name="ExcludeFromCalcComparison" value="1"/>
-      </key>
-      <key name="_Attribution">
-        <flag name="ExcludeFromCalcComparison" value="1"/>
-      </key>
-      <key name="_Icon">
-        <flag name="ExcludeFromCalcComparison" value="1"/>
-      </key>
-      <key name="_Display">
-        <flag name="ExcludeFromCalcComparison" value="1"/>
-      </key>
-      <key name="_CanonicalPropertyNames">
-        <flag name="ExcludeFromCalcComparison" value="1"/>
-      </key>
-      <key name="_ClassificationId">
-        <flag name="ExcludeFromCalcComparison" value="1"/>
-      </key>
-    </keyFlags>
-  </global>
-</rvTypesInfo>
-</file>
-
-<file path=xl/richData/rdrichvalue.xml><?xml version="1.0" encoding="utf-8"?>
-<rvData xmlns="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata" count="1">
-  <rv s="0">
-    <v>0</v>
-    <v>5</v>
-  </rv>
-</rvData>
-</file>
-
-<file path=xl/richData/rdrichvaluestructure.xml><?xml version="1.0" encoding="utf-8"?>
-<rvStructures xmlns="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata" count="1">
-  <s t="_localImage">
-    <k n="_rvRel:LocalImageIdentifier" t="i"/>
-    <k n="CalcOrigin" t="i"/>
-  </s>
-</rvStructures>
-</file>
-
-<file path=xl/richData/richValueRel.xml><?xml version="1.0" encoding="utf-8"?>
-<richValueRels xmlns="http://schemas.microsoft.com/office/spreadsheetml/2022/richvaluerel" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <rel r:id="rId1"/>
-</richValueRels>
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -18543,11 +18591,11 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:CB605"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <pane xSplit="5" ySplit="3" topLeftCell="BY10" activePane="bottomRight" state="frozen"/>
+    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <pane xSplit="5" ySplit="3" topLeftCell="CA4" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="F1" sqref="F1"/>
       <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
-      <selection pane="bottomRight" activeCell="CB13" sqref="CB13"/>
+      <selection pane="bottomRight" activeCell="E27" sqref="E27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -34607,26 +34655,45 @@
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8D0181B0-4AD7-401A-AF4D-1D598E09F584}">
   <sheetPr codeName="Sheet4"/>
-  <dimension ref="A2:B2"/>
+  <dimension ref="A1:C1"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A6" sqref="A6"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="17.140625" customWidth="1"/>
+    <col min="2" max="2" width="33.5703125" customWidth="1"/>
+    <col min="3" max="3" width="141.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>61</v>
-      </c>
-      <c r="B2" t="e" vm="1">
-        <v>#VALUE!</v>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>289</v>
+      </c>
+      <c r="B1" t="s">
+        <v>268</v>
+      </c>
+      <c r="C1" t="str">
+        <f>INDEX(Data!CB:CB, MATCH(B1, Data!B:B, 0))</f>
+        <v>C:\Users\malih\OneDrive\Documents\GitLab project\initial\convert pic\project 2\convert-pic-project\templates\brace 1.5x1.38x.06.dxf</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
+      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="1">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{967667B4-EA2D-4B6F-92CA-573E734A917D}">
+          <x14:formula1>
+            <xm:f>Data!$B$2:$B$100</xm:f>
+          </x14:formula1>
+          <xm:sqref>B1</xm:sqref>
+        </x14:dataValidation>
+      </x14:dataValidations>
+    </ext>
+  </extLst>
 </worksheet>
 </file>